--- a/Covid_19_Dataset_and_References/References/96.xlsx
+++ b/Covid_19_Dataset_and_References/References/96.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="139">
   <si>
     <t>Doi</t>
   </si>
@@ -466,6 +466,60 @@
   </si>
   <si>
     <t>[Wei%Liu%NULL%0,   Jing%Wang%NULL%0,   Wenbin%Li%NULL%1,   Zhaoxian%Zhou%NULL%1,   Siying%Liu%NULL%1,   Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,    Zhiqiang%Zhou%NULL%0,    Jianping%Zhang%NULL%0,    Fengfeng%Zhu%NULL%0,    Yongyan%Tang%NULL%0,    Xinghua%Shen%luckydrx@163.com%0]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%0,    Hua%Peng%NULL%1,    Lin%Wang%NULL%2,    Yin%Zhao%NULL%1,    Lingkong%Zeng%NULL%1,    Hui%Gao%NULL%1,    Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Suliman%Khan%NULL%1,    Liangyu%Peng%NULL%2,    Liangyu%Peng%NULL%0,    Rabeea%Siddique%NULL%1,    Ghulam%Nabi%NULL%1,    NULL%Nawsherwan%NULL%1,    Mengzhou%Xue%NULL%1,    Jianbo%Liu%NULL%1,    Guang%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,    Lefei%Han%NULL%1,    Min%Peng%2658706528@qq.com%1,    Yuxia%Lv%NULL%1,    Yin%Ouyang%NULL%1,    Kui%Liu%NULL%0,    Linli%Yue%NULL%1,    Qiannan%Li%NULL%1,    Guoqiang%Sun%NULL%2,    Lin%Chen%NULL%0,    Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[Nan%Yu%NULL%1,    Wei%Li%NULL%0,    Qingling%Kang%NULL%1,    Zhi%Xiong%NULL%1,    Shaoshuai%Wang%NULL%1,    Xingguang%Lin%NULL%1,    Yanyan%Liu%NULL%1,    Juan%Xiao%NULL%1,    Haiyi%Liu%NULL%1,    Dongrui%Deng%NULL%1,    Suhua%Chen%NULL%1,    Wanjiang%Zeng%NULL%1,    Ling%Feng%NULL%0,    Jianli%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Nicoletta%Vendola%NULL%1,    Viviana%stampini%NULL%2,    Viviana%stampini%NULL%0,    Roberta%Amadori%NULL%2,    Roberta%Amadori%NULL%0,    Martina%Gerbino%NULL%2,    Martina%Gerbino%NULL%0,    Annalisa%Curatolo%NULL%2,    Annalisa%Curatolo%NULL%0,    Daniela%surico%NULL%2,    Daniela%surico%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Siyu%Chen%NULL%1,    E.%Liao%NULL%2,    E.%Liao%NULL%0,    Dongmei%Cao%NULL%1,    Ying%Gao%NULL%1,    Guoqiang%Sun%sun821ch@126.com%0,    Yong%Shao%cqshaoyong@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Baud%D.%coreGivesNoEmail%1,   Dubruc%E.%coreGivesNoEmail%1,   Favre%G.%coreGivesNoEmail%1,   Gengler%C.%coreGivesNoEmail%1,   Greub%G.%coreGivesNoEmail%1,   Jaton%K.%coreGivesNoEmail%1,   Pomar%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[AZAP%ALPAY%coreGivesNoEmail%0,   Kalafat%Erkan%coreGivesNoEmail%0,   KO\u00c7%ASLI%coreGivesNoEmail%0,   Ozisik%S.%coreGivesNoEmail%0,   UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%0,   VARLI%BULUT%coreGivesNoEmail%0,   Yaprak%E.%coreGivesNoEmail%0,   \u00c7INAR%G\u00dcLE%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%0,    Jianhui%Wang%NULL%0,    Yunbo%Mo%NULL%0,    Wei%Duan%NULL%0,    Guangjun%Xiang%NULL%0,    Ming%Yi%NULL%0,    Lei%Bao%NULL%0,    Yuan%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,    Caitlin%Baptiste%NULL%0,    Cynthia%Gyamfi-Bannerman%NULL%0,    Russell%Miller%NULL%0,    Rebecca%Martinez%NULL%0,    Kyra%Bernstein%NULL%0,    Laurence%Ring%NULL%0,    Ruth%Landau%NULL%0,    Stephanie%Purisch%NULL%0,    Alexander M.%Friedman%NULL%0,    Karin%Fuchs%NULL%0,    Desmond%Sutton%NULL%0,    Maria%Andrikopoulou%NULL%0,    Devon%Rupley%NULL%0,    Jean-Ju%Sheen%NULL%0,    Janice%Aubey%NULL%0,    Noelia%Zork%NULL%0,    Leslie%Moroz%NULL%0,    Mirella%Mourad%NULL%0,    Ronald%Wapner%NULL%0,    Lynn L.%Simpson%NULL%0,    Mary E.%D’Alton%NULL%0,    Dena%Goffman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%0,    Hong%Wei%NULL%0,    Hong%Wei%NULL%0,    Zhihong%Zhang%NULL%0,    Jing%Chang%NULL%0,    Xiaopeng%Ma%NULL%0,    Xiang%Gao%NULL%0,    Qiang%Chen%qiangchen2015@sina.com%0,    Qiumei%Pang%pqm19650930@sina.com%0,    Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%0,    Yousef%Al Ahwel%NULL%0,    Anju%Suhag%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,    Jing%Wang%NULL%0,    Wenbin%Li%NULL%1,    Zhaoxian%Zhou%NULL%1,    Siying%Liu%NULL%1,    Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
   </si>
 </sst>
 </file>
@@ -811,6 +865,9 @@
       <c r="H1" t="s">
         <v>31</v>
       </c>
+      <c r="I1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -837,6 +894,9 @@
       <c r="H2" t="s">
         <v>32</v>
       </c>
+      <c r="I2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -852,7 +912,7 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -862,6 +922,9 @@
       </c>
       <c r="H3" t="s">
         <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="4">
@@ -878,7 +941,7 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
@@ -888,6 +951,9 @@
       </c>
       <c r="H4" t="s">
         <v>42</v>
+      </c>
+      <c r="I4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="5">
@@ -904,7 +970,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -914,6 +980,9 @@
       </c>
       <c r="H5" t="s">
         <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="6">
@@ -930,7 +999,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="F6" t="s">
         <v>51</v>
@@ -940,6 +1009,9 @@
       </c>
       <c r="H6" t="s">
         <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="7">
@@ -956,7 +1028,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -966,6 +1038,9 @@
       </c>
       <c r="H7" t="s">
         <v>32</v>
+      </c>
+      <c r="I7" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="8">
@@ -993,6 +1068,9 @@
       <c r="H8" t="s">
         <v>32</v>
       </c>
+      <c r="I8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -1008,7 +1086,7 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1018,6 +1096,9 @@
       </c>
       <c r="H9" t="s">
         <v>32</v>
+      </c>
+      <c r="I9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="10">
@@ -1045,6 +1126,9 @@
       <c r="H10" t="s">
         <v>32</v>
       </c>
+      <c r="I10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -1060,7 +1144,7 @@
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="F11" t="s">
         <v>62</v>
@@ -1070,6 +1154,9 @@
       </c>
       <c r="H11" t="s">
         <v>63</v>
+      </c>
+      <c r="I11" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="12">
@@ -1086,16 +1173,19 @@
         <v>96</v>
       </c>
       <c r="E12" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="H12" t="s">
         <v>32</v>
+      </c>
+      <c r="I12" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13">
@@ -1112,16 +1202,19 @@
         <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
         <v>32</v>
+      </c>
+      <c r="I13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14">
@@ -1138,7 +1231,7 @@
         <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="F14" t="s">
         <v>67</v>
@@ -1148,6 +1241,9 @@
       </c>
       <c r="H14" t="s">
         <v>68</v>
+      </c>
+      <c r="I14" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="15">
@@ -1164,7 +1260,7 @@
         <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="F15" t="s">
         <v>72</v>
@@ -1174,6 +1270,9 @@
       </c>
       <c r="H15" t="s">
         <v>32</v>
+      </c>
+      <c r="I15" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="16">
@@ -1190,7 +1289,7 @@
         <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="F16" t="s">
         <v>76</v>
@@ -1200,6 +1299,9 @@
       </c>
       <c r="H16" t="s">
         <v>77</v>
+      </c>
+      <c r="I16" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="17">
@@ -1227,6 +1329,9 @@
       <c r="H17" t="s">
         <v>32</v>
       </c>
+      <c r="I17" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
@@ -1242,7 +1347,7 @@
         <v>79</v>
       </c>
       <c r="E18" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="F18" t="s">
         <v>81</v>
@@ -1252,6 +1357,9 @@
       </c>
       <c r="H18" t="s">
         <v>82</v>
+      </c>
+      <c r="I18" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="19">
@@ -1268,7 +1376,7 @@
         <v>84</v>
       </c>
       <c r="E19" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="F19" t="s">
         <v>86</v>
@@ -1278,6 +1386,9 @@
       </c>
       <c r="H19" t="s">
         <v>87</v>
+      </c>
+      <c r="I19" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/96.xlsx
+++ b/Covid_19_Dataset_and_References/References/96.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="181">
   <si>
     <t>Doi</t>
   </si>
@@ -520,6 +520,132 @@
   </si>
   <si>
     <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,     Zhiqiang%Zhou%NULL%0,     Jianping%Zhang%NULL%0,     Fengfeng%Zhu%NULL%0,     Yongyan%Tang%NULL%0,     Xinghua%Shen%luckydrx@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%0,     Hua%Peng%NULL%1,     Lin%Wang%NULL%2,     Yin%Zhao%NULL%1,     Lingkong%Zeng%NULL%1,     Hui%Gao%NULL%1,     Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Suliman%Khan%NULL%1,     Liangyu%Peng%NULL%2,     Liangyu%Peng%NULL%0,     Rabeea%Siddique%NULL%1,     Ghulam%Nabi%NULL%1,     NULL%Nawsherwan%NULL%1,     Mengzhou%Xue%NULL%1,     Jianbo%Liu%NULL%1,     Guang%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,     Lefei%Han%NULL%1,     Min%Peng%2658706528@qq.com%1,     Yuxia%Lv%NULL%1,     Yin%Ouyang%NULL%1,     Kui%Liu%NULL%0,     Linli%Yue%NULL%1,     Qiannan%Li%NULL%1,     Guoqiang%Sun%NULL%2,     Lin%Chen%NULL%0,     Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[Nan%Yu%NULL%1,     Wei%Li%NULL%1,     Qingling%Kang%NULL%1,     Zhi%Xiong%NULL%1,     Shaoshuai%Wang%NULL%1,     Xingguang%Lin%NULL%1,     Yanyan%Liu%NULL%1,     Juan%Xiao%NULL%1,     Haiyi%Liu%NULL%1,     Dongrui%Deng%NULL%1,     Suhua%Chen%NULL%1,     Wanjiang%Zeng%NULL%1,     Ling%Feng%NULL%0,     Jianli%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nicoletta%Vendola%NULL%1,     Viviana%stampini%NULL%2,     Viviana%stampini%NULL%0,     Roberta%Amadori%NULL%2,     Roberta%Amadori%NULL%0,     Martina%Gerbino%NULL%2,     Martina%Gerbino%NULL%0,     Annalisa%Curatolo%NULL%2,     Annalisa%Curatolo%NULL%0,     Daniela%surico%NULL%2,     Daniela%surico%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Siyu%Chen%NULL%1,     E.%Liao%NULL%2,     E.%Liao%NULL%0,     Dongmei%Cao%NULL%1,     Ying%Gao%NULL%1,     Guoqiang%Sun%sun821ch@126.com%0,     Yong%Shao%cqshaoyong@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Baud%D.%coreGivesNoEmail%1,    Dubruc%E.%coreGivesNoEmail%1,    Favre%G.%coreGivesNoEmail%1,    Gengler%C.%coreGivesNoEmail%1,    Greub%G.%coreGivesNoEmail%1,    Jaton%K.%coreGivesNoEmail%1,    Pomar%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[AZAP%ALPAY%coreGivesNoEmail%0,    Kalafat%Erkan%coreGivesNoEmail%0,    KO\u00c7%ASLI%coreGivesNoEmail%0,    Ozisik%S.%coreGivesNoEmail%0,    UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%0,    VARLI%BULUT%coreGivesNoEmail%0,    Yaprak%E.%coreGivesNoEmail%0,    \u00c7INAR%G\u00dcLE%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%0,     Jianhui%Wang%NULL%0,     Yunbo%Mo%NULL%0,     Wei%Duan%NULL%0,     Guangjun%Xiang%NULL%0,     Ming%Yi%NULL%0,     Lei%Bao%NULL%0,     Yuan%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,     Caitlin%Baptiste%NULL%0,     Cynthia%Gyamfi-Bannerman%NULL%0,     Russell%Miller%NULL%0,     Rebecca%Martinez%NULL%0,     Kyra%Bernstein%NULL%0,     Laurence%Ring%NULL%0,     Ruth%Landau%NULL%0,     Stephanie%Purisch%NULL%0,     Alexander M.%Friedman%NULL%0,     Karin%Fuchs%NULL%0,     Desmond%Sutton%NULL%0,     Maria%Andrikopoulou%NULL%0,     Devon%Rupley%NULL%0,     Jean-Ju%Sheen%NULL%0,     Janice%Aubey%NULL%0,     Noelia%Zork%NULL%0,     Leslie%Moroz%NULL%0,     Mirella%Mourad%NULL%0,     Ronald%Wapner%NULL%0,     Lynn L.%Simpson%NULL%0,     Mary E.%D’Alton%NULL%0,     Dena%Goffman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%0,     Hong%Wei%NULL%0,     Hong%Wei%NULL%0,     Zhihong%Zhang%NULL%0,     Jing%Chang%NULL%0,     Xiaopeng%Ma%NULL%0,     Xiang%Gao%NULL%0,     Qiang%Chen%qiangchen2015@sina.com%0,     Qiumei%Pang%pqm19650930@sina.com%0,     Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%0,     Yousef%Al Ahwel%NULL%0,     Anju%Suhag%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,     Jing%Wang%NULL%0,     Wenbin%Li%NULL%1,     Zhaoxian%Zhou%NULL%1,     Siying%Liu%NULL%1,     Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,      Zhiqiang%Zhou%NULL%0,      Jianping%Zhang%NULL%0,      Fengfeng%Zhu%NULL%0,      Yongyan%Tang%NULL%0,      Xinghua%Shen%luckydrx@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%0,      Hua%Peng%NULL%1,      Lin%Wang%NULL%2,      Yin%Zhao%NULL%1,      Lingkong%Zeng%NULL%1,      Hui%Gao%NULL%1,      Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Suliman%Khan%NULL%1,      Liangyu%Peng%NULL%2,      Liangyu%Peng%NULL%0,      Rabeea%Siddique%NULL%1,      Ghulam%Nabi%NULL%1,      NULL%Nawsherwan%NULL%1,      Mengzhou%Xue%NULL%1,      Jianbo%Liu%NULL%1,      Guang%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,      Lefei%Han%NULL%1,      Min%Peng%2658706528@qq.com%1,      Yuxia%Lv%NULL%1,      Yin%Ouyang%NULL%1,      Kui%Liu%NULL%0,      Linli%Yue%NULL%1,      Qiannan%Li%NULL%1,      Guoqiang%Sun%NULL%2,      Lin%Chen%NULL%0,      Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[Nan%Yu%NULL%1,      Wei%Li%NULL%1,      Qingling%Kang%NULL%1,      Zhi%Xiong%NULL%1,      Shaoshuai%Wang%NULL%1,      Xingguang%Lin%NULL%1,      Yanyan%Liu%NULL%1,      Juan%Xiao%NULL%1,      Haiyi%Liu%NULL%1,      Dongrui%Deng%NULL%1,      Suhua%Chen%NULL%1,      Wanjiang%Zeng%NULL%1,      Ling%Feng%NULL%0,      Jianli%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nicoletta%Vendola%NULL%1,      Viviana%stampini%NULL%2,      Viviana%stampini%NULL%0,      Roberta%Amadori%NULL%2,      Roberta%Amadori%NULL%0,      Martina%Gerbino%NULL%2,      Martina%Gerbino%NULL%0,      Annalisa%Curatolo%NULL%2,      Annalisa%Curatolo%NULL%0,      Daniela%surico%NULL%2,      Daniela%surico%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Siyu%Chen%NULL%1,      E.%Liao%NULL%2,      E.%Liao%NULL%0,      Dongmei%Cao%NULL%1,      Ying%Gao%NULL%1,      Guoqiang%Sun%sun821ch@126.com%0,      Yong%Shao%cqshaoyong@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Baud%D.%coreGivesNoEmail%1,     Dubruc%E.%coreGivesNoEmail%1,     Favre%G.%coreGivesNoEmail%1,     Gengler%C.%coreGivesNoEmail%1,     Greub%G.%coreGivesNoEmail%1,     Jaton%K.%coreGivesNoEmail%1,     Pomar%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[AZAP%ALPAY%coreGivesNoEmail%0,     Kalafat%Erkan%coreGivesNoEmail%0,     KO\u00c7%ASLI%coreGivesNoEmail%0,     Ozisik%S.%coreGivesNoEmail%0,     UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%0,     VARLI%BULUT%coreGivesNoEmail%0,     Yaprak%E.%coreGivesNoEmail%0,     \u00c7INAR%G\u00dcLE%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%0,      Jianhui%Wang%NULL%0,      Yunbo%Mo%NULL%0,      Wei%Duan%NULL%0,      Guangjun%Xiang%NULL%0,      Ming%Yi%NULL%0,      Lei%Bao%NULL%0,      Yuan%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,      Caitlin%Baptiste%NULL%0,      Cynthia%Gyamfi-Bannerman%NULL%0,      Russell%Miller%NULL%0,      Rebecca%Martinez%NULL%0,      Kyra%Bernstein%NULL%0,      Laurence%Ring%NULL%0,      Ruth%Landau%NULL%0,      Stephanie%Purisch%NULL%0,      Alexander M.%Friedman%NULL%0,      Karin%Fuchs%NULL%0,      Desmond%Sutton%NULL%0,      Maria%Andrikopoulou%NULL%0,      Devon%Rupley%NULL%0,      Jean-Ju%Sheen%NULL%0,      Janice%Aubey%NULL%0,      Noelia%Zork%NULL%0,      Leslie%Moroz%NULL%0,      Mirella%Mourad%NULL%0,      Ronald%Wapner%NULL%0,      Lynn L.%Simpson%NULL%0,      Mary E.%D’Alton%NULL%0,      Dena%Goffman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%0,      Hong%Wei%NULL%0,      Hong%Wei%NULL%0,      Zhihong%Zhang%NULL%0,      Jing%Chang%NULL%0,      Xiaopeng%Ma%NULL%0,      Xiang%Gao%NULL%0,      Qiang%Chen%qiangchen2015@sina.com%0,      Qiumei%Pang%pqm19650930@sina.com%0,      Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%0,      Yousef%Al Ahwel%NULL%0,      Anju%Suhag%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,      Jing%Wang%NULL%0,      Wenbin%Li%NULL%1,      Zhaoxian%Zhou%NULL%1,      Siying%Liu%NULL%1,      Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,       Zhiqiang%Zhou%NULL%0,       Jianping%Zhang%NULL%0,       Fengfeng%Zhu%NULL%0,       Yongyan%Tang%NULL%0,       Xinghua%Shen%luckydrx@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%0,       Hua%Peng%NULL%1,       Lin%Wang%NULL%2,       Yin%Zhao%NULL%1,       Lingkong%Zeng%NULL%1,       Hui%Gao%NULL%1,       Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Suliman%Khan%NULL%1,       Liangyu%Peng%NULL%2,       Liangyu%Peng%NULL%0,       Rabeea%Siddique%NULL%1,       Ghulam%Nabi%NULL%1,       NULL%Nawsherwan%NULL%1,       Mengzhou%Xue%NULL%1,       Jianbo%Liu%NULL%1,       Guang%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,       Lefei%Han%NULL%1,       Min%Peng%2658706528@qq.com%1,       Yuxia%Lv%NULL%1,       Yin%Ouyang%NULL%1,       Kui%Liu%NULL%0,       Linli%Yue%NULL%1,       Qiannan%Li%NULL%1,       Guoqiang%Sun%NULL%2,       Lin%Chen%NULL%0,       Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[Nan%Yu%NULL%1,       Wei%Li%NULL%1,       Qingling%Kang%NULL%1,       Zhi%Xiong%NULL%1,       Shaoshuai%Wang%NULL%1,       Xingguang%Lin%NULL%1,       Yanyan%Liu%NULL%1,       Juan%Xiao%NULL%1,       Haiyi%Liu%NULL%1,       Dongrui%Deng%NULL%1,       Suhua%Chen%NULL%1,       Wanjiang%Zeng%NULL%1,       Ling%Feng%NULL%0,       Jianli%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nicoletta%Vendola%NULL%1,       Viviana%stampini%NULL%2,       Viviana%stampini%NULL%0,       Roberta%Amadori%NULL%2,       Roberta%Amadori%NULL%0,       Martina%Gerbino%NULL%2,       Martina%Gerbino%NULL%0,       Annalisa%Curatolo%NULL%2,       Annalisa%Curatolo%NULL%0,       Daniela%surico%NULL%2,       Daniela%surico%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Siyu%Chen%NULL%1,       E.%Liao%NULL%2,       E.%Liao%NULL%0,       Dongmei%Cao%NULL%1,       Ying%Gao%NULL%1,       Guoqiang%Sun%sun821ch@126.com%0,       Yong%Shao%cqshaoyong@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Baud%D.%coreGivesNoEmail%1,      Dubruc%E.%coreGivesNoEmail%1,      Favre%G.%coreGivesNoEmail%1,      Gengler%C.%coreGivesNoEmail%1,      Greub%G.%coreGivesNoEmail%1,      Jaton%K.%coreGivesNoEmail%1,      Pomar%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[AZAP%ALPAY%coreGivesNoEmail%0,      Kalafat%Erkan%coreGivesNoEmail%0,      KO\u00c7%ASLI%coreGivesNoEmail%0,      Ozisik%S.%coreGivesNoEmail%0,      UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%0,      VARLI%BULUT%coreGivesNoEmail%0,      Yaprak%E.%coreGivesNoEmail%0,      \u00c7INAR%G\u00dcLE%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%0,       Jianhui%Wang%NULL%0,       Yunbo%Mo%NULL%0,       Wei%Duan%NULL%0,       Guangjun%Xiang%NULL%0,       Ming%Yi%NULL%0,       Lei%Bao%NULL%0,       Yuan%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,       Caitlin%Baptiste%NULL%0,       Cynthia%Gyamfi-Bannerman%NULL%0,       Russell%Miller%NULL%0,       Rebecca%Martinez%NULL%0,       Kyra%Bernstein%NULL%0,       Laurence%Ring%NULL%0,       Ruth%Landau%NULL%0,       Stephanie%Purisch%NULL%0,       Alexander M.%Friedman%NULL%0,       Karin%Fuchs%NULL%0,       Desmond%Sutton%NULL%0,       Maria%Andrikopoulou%NULL%0,       Devon%Rupley%NULL%0,       Jean-Ju%Sheen%NULL%0,       Janice%Aubey%NULL%0,       Noelia%Zork%NULL%0,       Leslie%Moroz%NULL%0,       Mirella%Mourad%NULL%0,       Ronald%Wapner%NULL%0,       Lynn L.%Simpson%NULL%0,       Mary E.%D’Alton%NULL%0,       Dena%Goffman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%0,       Hong%Wei%NULL%0,       Hong%Wei%NULL%0,       Zhihong%Zhang%NULL%0,       Jing%Chang%NULL%0,       Xiaopeng%Ma%NULL%0,       Xiang%Gao%NULL%0,       Qiang%Chen%qiangchen2015@sina.com%0,       Qiumei%Pang%pqm19650930@sina.com%0,       Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%0,       Yousef%Al Ahwel%NULL%0,       Anju%Suhag%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,       Jing%Wang%NULL%0,       Wenbin%Li%NULL%1,       Zhaoxian%Zhou%NULL%1,       Siying%Liu%NULL%1,       Zhihui%Rong%rongzhihui53@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -912,7 +1038,7 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -941,7 +1067,7 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
@@ -970,7 +1096,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -999,7 +1125,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="F6" t="s">
         <v>51</v>
@@ -1028,7 +1154,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1086,7 +1212,7 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1144,7 +1270,7 @@
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="F11" t="s">
         <v>62</v>
@@ -1173,13 +1299,13 @@
         <v>96</v>
       </c>
       <c r="E12" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="H12" t="s">
         <v>32</v>
@@ -1202,13 +1328,13 @@
         <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="H13" t="s">
         <v>32</v>
@@ -1231,7 +1357,7 @@
         <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="F14" t="s">
         <v>67</v>
@@ -1260,7 +1386,7 @@
         <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="F15" t="s">
         <v>72</v>
@@ -1289,7 +1415,7 @@
         <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="F16" t="s">
         <v>76</v>
@@ -1347,7 +1473,7 @@
         <v>79</v>
       </c>
       <c r="E18" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="F18" t="s">
         <v>81</v>
@@ -1376,7 +1502,7 @@
         <v>84</v>
       </c>
       <c r="E19" t="s">
-        <v>137</v>
+        <v>180</v>
       </c>
       <c r="F19" t="s">
         <v>86</v>

--- a/Covid_19_Dataset_and_References/References/96.xlsx
+++ b/Covid_19_Dataset_and_References/References/96.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="227">
   <si>
     <t>Doi</t>
   </si>
@@ -646,6 +646,153 @@
   </si>
   <si>
     <t>[Wei%Liu%NULL%0,       Jing%Wang%NULL%0,       Wenbin%Li%NULL%1,       Zhaoxian%Zhou%NULL%1,       Siying%Liu%NULL%1,       Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>"Clinical analysis of 10 neonates born to mothers with 2019-nCoV pneumonia"</t>
+  </si>
+  <si>
+    <t>[Huaping%Zhu%xref no email%1, Lin%Wang%xref no email%1, Chengzhi%Fang%xref no email%1, Sicong%Peng%xref no email%1, Lianhong%Zhang%xref no email%1, Guiping%Chang%xref no email%1, Shiwen%Xia%xref no email%0, Wenhao%Zhou%xref no email%0]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-25</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,        Zhiqiang%Zhou%NULL%0,        Jianping%Zhang%NULL%0,        Fengfeng%Zhu%NULL%0,        Yongyan%Tang%NULL%0,        Xinghua%Shen%luckydrx@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%0,        Hua%Peng%NULL%1,        Lin%Wang%NULL%2,        Yin%Zhao%NULL%1,        Lingkong%Zeng%NULL%1,        Hui%Gao%NULL%1,        Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Suliman%Khan%NULL%1,        Liangyu%Peng%NULL%2,        Liangyu%Peng%NULL%0,        Rabeea%Siddique%NULL%1,        Ghulam%Nabi%NULL%1,        NULL%Nawsherwan%NULL%1,        Mengzhou%Xue%NULL%1,        Jianbo%Liu%NULL%1,        Guang%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,        Lefei%Han%NULL%1,        Min%Peng%2658706528@qq.com%1,        Yuxia%Lv%NULL%1,        Yin%Ouyang%NULL%1,        Kui%Liu%NULL%0,        Linli%Yue%NULL%1,        Qiannan%Li%NULL%1,        Guoqiang%Sun%NULL%2,        Lin%Chen%NULL%0,        Lin%Yang%l.yang@polyu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Nan%Yu%NULL%1,        Wei%Li%NULL%0,        Qingling%Kang%NULL%1,        Zhi%Xiong%NULL%1,        Shaoshuai%Wang%NULL%1,        Xingguang%Lin%NULL%1,        Yanyan%Liu%NULL%1,        Juan%Xiao%NULL%1,        Haiyi%Liu%NULL%1,        Dongrui%Deng%NULL%1,        Suhua%Chen%NULL%1,        Wanjiang%Zeng%NULL%1,        Ling%Feng%NULL%1,        Jianli%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Neonatal Early-Onset Infection With SARS-CoV-2 in 33 Neonates Born to Mothers With COVID-19 in Wuhan, China"</t>
+  </si>
+  <si>
+    <t>[Lingkong%Zeng%xref no email%0, Shiwen%Xia%xref no email%0, Wenhao%Yuan%xref no email%0, Kai%Yan%xref no email%0, Feifan%Xiao%xref no email%0, Jianbo%Shao%xref no email%0, Wenhao%Zhou%xref no email%0]</t>
+  </si>
+  <si>
+    <t>2023-05-26</t>
+  </si>
+  <si>
+    <t>[Nicoletta%Vendola%NULL%1,        Viviana%stampini%NULL%2,        Viviana%stampini%NULL%0,        Roberta%Amadori%NULL%2,        Roberta%Amadori%NULL%0,        Martina%Gerbino%NULL%2,        Martina%Gerbino%NULL%0,        Annalisa%Curatolo%NULL%2,        Annalisa%Curatolo%NULL%0,        Daniela%surico%NULL%2,        Daniela%surico%NULL%0]</t>
+  </si>
+  <si>
+    <t>"Possible Vertical Transmission of SARS-CoV-2 From an Infected Mother to Her Newborn"</t>
+  </si>
+  <si>
+    <t>[Lan%Dong%xref no email%0, Jinhua%Tian%xref no email%0, Songming%He%xref no email%0, Chuchao%Zhu%xref no email%0, Jian%Wang%xref no email%0, Chen%Liu%xref no email%0, Jing%Yang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>2023-05-11</t>
+  </si>
+  <si>
+    <t>[Siyu%Chen%NULL%1,        E.%Liao%NULL%2,        E.%Liao%NULL%0,        Dongmei%Cao%NULL%1,        Ying%Gao%NULL%1,        Guoqiang%Sun%sun821ch@126.com%0,        Yong%Shao%cqshaoyong@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Baud%D.%coreGivesNoEmail%1,       Dubruc%E.%coreGivesNoEmail%1,       Favre%G.%coreGivesNoEmail%1,       Gengler%C.%coreGivesNoEmail%1,       Greub%G.%coreGivesNoEmail%1,       Jaton%K.%coreGivesNoEmail%1,       Pomar%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[AZAP%ALPAY%coreGivesNoEmail%0,       Kalafat%Erkan%coreGivesNoEmail%1,       KO\u00c7%ASLI%coreGivesNoEmail%1,       Ozisik%S.%coreGivesNoEmail%1,       UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%1,       VARLI%BULUT%coreGivesNoEmail%1,       Yaprak%E.%coreGivesNoEmail%1,       \u00c7INAR%G\u00dcLE%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%0,        Jianhui%Wang%NULL%1,        Yunbo%Mo%NULL%1,        Wei%Duan%NULL%0,        Guangjun%Xiang%NULL%1,        Ming%Yi%NULL%1,        Lei%Bao%NULL%1,        Yuan%Shi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,        Caitlin%Baptiste%NULL%1,        Cynthia%Gyamfi-Bannerman%NULL%1,        Russell%Miller%NULL%1,        Rebecca%Martinez%NULL%1,        Kyra%Bernstein%NULL%1,        Laurence%Ring%NULL%1,        Ruth%Landau%NULL%1,        Stephanie%Purisch%NULL%1,        Alexander M.%Friedman%NULL%1,        Karin%Fuchs%NULL%1,        Desmond%Sutton%NULL%1,        Maria%Andrikopoulou%NULL%1,        Devon%Rupley%NULL%1,        Jean-Ju%Sheen%NULL%1,        Janice%Aubey%NULL%1,        Noelia%Zork%NULL%1,        Leslie%Moroz%NULL%1,        Mirella%Mourad%NULL%1,        Ronald%Wapner%NULL%1,        Lynn L.%Simpson%NULL%1,        Mary E.%D’Alton%NULL%1,        Dena%Goffman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%0,        Hong%Wei%NULL%2,        Hong%Wei%NULL%0,        Zhihong%Zhang%NULL%1,        Jing%Chang%NULL%1,        Xiaopeng%Ma%NULL%1,        Xiang%Gao%NULL%1,        Qiang%Chen%qiangchen2015@sina.com%1,        Qiumei%Pang%pqm19650930@sina.com%2,        Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>"The first Jordanian newborn delivered to COVID-19 infected mother with no evidence of vertical transmission: A case report."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Abstract\n        Background: COVID-19 has been recently declared by WHO a global health pandemic.
+ Theoretically, it might affect all age groups but it is not known if vertical transmission during pregnancy occurs.
+ We hereby report a case about the first Jordanian newborn delivered to COVID-19 infected mother.
+ Case presentation: A late preterm female was delivered by Cesarean section to COVID-19 mother who was diagnosed after presenting with a dry cough, nasal congestion, headache, and sore throat in the context of direct contact with other confirmed patients.
+ The infant\u2019s clinical examination was reassuring throughout the hospital stay.
+ COVID-19 was not detected by RT-PCR tests performed on the amniotic fluid and on two samples of the newborn\u2019s nasopharyngeal swabs indicating no vertical transmission of the virus.
+ After 10 days of hospital stay and following two negative consecutive RT-PCR assays on the mother\u2019s nasopharyngeal swabs, both the mother and the infant were discharged home in stable clinical conditions.
+ Conclusion: Vertical transmission is not likely among the routes of COVID-19 transmission.
+ However, data about more number of deliveries to COVID-19 infected mothers is needed to support this conclusion.
+</t>
+  </si>
+  <si>
+    <t>[Mohammad%Khassawneh%xref no email%1, Wasim%Khasawneh%xref no email%1, Laila Al%Zaghal%xref no email%1, Wail%Hayajneh%xref no email%1, Fadel%Abdelal%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2022-08-01</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%0,        Yousef%Al Ahwel%NULL%1,        Anju%Suhag%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,        Jing%Wang%NULL%0,        Wenbin%Li%NULL%1,        Zhaoxian%Zhou%NULL%1,        Siying%Liu%NULL%1,        Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Huaping%Zhu%xref no email%1,  Lin%Wang%xref no email%1,  Chengzhi%Fang%xref no email%1,  Sicong%Peng%xref no email%1,  Lianhong%Zhang%xref no email%1,  Guiping%Chang%xref no email%1,  Shiwen%Xia%xref no email%0,  Wenhao%Zhou%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,         Zhiqiang%Zhou%NULL%0,         Jianping%Zhang%NULL%0,         Fengfeng%Zhu%NULL%0,         Yongyan%Tang%NULL%0,         Xinghua%Shen%luckydrx@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%0,         Hua%Peng%NULL%1,         Lin%Wang%NULL%2,         Yin%Zhao%NULL%1,         Lingkong%Zeng%NULL%1,         Hui%Gao%NULL%1,         Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Suliman%Khan%NULL%1,         Liangyu%Peng%NULL%2,         Liangyu%Peng%NULL%0,         Rabeea%Siddique%NULL%1,         Ghulam%Nabi%NULL%1,         NULL%Nawsherwan%NULL%1,         Mengzhou%Xue%NULL%1,         Jianbo%Liu%NULL%1,         Guang%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,         Lefei%Han%NULL%1,         Min%Peng%2658706528@qq.com%1,         Yuxia%Lv%NULL%1,         Yin%Ouyang%NULL%1,         Kui%Liu%NULL%0,         Linli%Yue%NULL%1,         Qiannan%Li%NULL%1,         Guoqiang%Sun%NULL%2,         Lin%Chen%NULL%0,         Lin%Yang%l.yang@polyu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Nan%Yu%NULL%1,         Wei%Li%NULL%0,         Qingling%Kang%NULL%1,         Zhi%Xiong%NULL%1,         Shaoshuai%Wang%NULL%1,         Xingguang%Lin%NULL%1,         Yanyan%Liu%NULL%1,         Juan%Xiao%NULL%1,         Haiyi%Liu%NULL%1,         Dongrui%Deng%NULL%1,         Suhua%Chen%NULL%1,         Wanjiang%Zeng%NULL%1,         Ling%Feng%NULL%1,         Jianli%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lingkong%Zeng%xref no email%0,  Shiwen%Xia%xref no email%0,  Wenhao%Yuan%xref no email%0,  Kai%Yan%xref no email%0,  Feifan%Xiao%xref no email%0,  Jianbo%Shao%xref no email%0,  Wenhao%Zhou%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Nicoletta%Vendola%NULL%1,         Viviana%stampini%NULL%2,         Viviana%stampini%NULL%0,         Roberta%Amadori%NULL%2,         Roberta%Amadori%NULL%0,         Martina%Gerbino%NULL%2,         Martina%Gerbino%NULL%0,         Annalisa%Curatolo%NULL%2,         Annalisa%Curatolo%NULL%0,         Daniela%surico%NULL%2,         Daniela%surico%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lan%Dong%xref no email%0,  Jinhua%Tian%xref no email%0,  Songming%He%xref no email%0,  Chuchao%Zhu%xref no email%0,  Jian%Wang%xref no email%0,  Chen%Liu%xref no email%0,  Jing%Yang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Siyu%Chen%NULL%1,         E.%Liao%NULL%2,         E.%Liao%NULL%0,         Dongmei%Cao%NULL%1,         Ying%Gao%NULL%1,         Guoqiang%Sun%sun821ch@126.com%0,         Yong%Shao%cqshaoyong@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Baud%D.%coreGivesNoEmail%1,        Dubruc%E.%coreGivesNoEmail%1,        Favre%G.%coreGivesNoEmail%1,        Gengler%C.%coreGivesNoEmail%1,        Greub%G.%coreGivesNoEmail%1,        Jaton%K.%coreGivesNoEmail%1,        Pomar%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[AZAP%ALPAY%coreGivesNoEmail%0,        Kalafat%Erkan%coreGivesNoEmail%1,        KO\u00c7%ASLI%coreGivesNoEmail%1,        Ozisik%S.%coreGivesNoEmail%1,        UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%1,        VARLI%BULUT%coreGivesNoEmail%1,        Yaprak%E.%coreGivesNoEmail%1,        \u00c7INAR%G\u00dcLE%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%0,         Jianhui%Wang%NULL%1,         Yunbo%Mo%NULL%1,         Wei%Duan%NULL%0,         Guangjun%Xiang%NULL%1,         Ming%Yi%NULL%1,         Lei%Bao%NULL%1,         Yuan%Shi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,         Caitlin%Baptiste%NULL%1,         Cynthia%Gyamfi-Bannerman%NULL%1,         Russell%Miller%NULL%1,         Rebecca%Martinez%NULL%1,         Kyra%Bernstein%NULL%1,         Laurence%Ring%NULL%1,         Ruth%Landau%NULL%1,         Stephanie%Purisch%NULL%1,         Alexander M.%Friedman%NULL%1,         Karin%Fuchs%NULL%1,         Desmond%Sutton%NULL%1,         Maria%Andrikopoulou%NULL%1,         Devon%Rupley%NULL%1,         Jean-Ju%Sheen%NULL%1,         Janice%Aubey%NULL%1,         Noelia%Zork%NULL%1,         Leslie%Moroz%NULL%1,         Mirella%Mourad%NULL%1,         Ronald%Wapner%NULL%1,         Lynn L.%Simpson%NULL%1,         Mary E.%D’Alton%NULL%1,         Dena%Goffman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%0,         Hong%Wei%NULL%2,         Hong%Wei%NULL%0,         Zhihong%Zhang%NULL%1,         Jing%Chang%NULL%1,         Xiaopeng%Ma%NULL%1,         Xiang%Gao%NULL%1,         Qiang%Chen%qiangchen2015@sina.com%1,         Qiumei%Pang%pqm19650930@sina.com%2,         Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Mohammad%Khassawneh%xref no email%1,  Wasim%Khasawneh%xref no email%1,  Laila Al%Zaghal%xref no email%1,  Wail%Hayajneh%xref no email%1,  Fadel%Abdelal%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%0,         Yousef%Al Ahwel%NULL%1,         Anju%Suhag%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,         Jing%Wang%NULL%0,         Wenbin%Li%NULL%1,         Zhaoxian%Zhou%NULL%1,         Siying%Liu%NULL%1,         Zhihui%Rong%rongzhihui53@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1003,22 +1150,22 @@
         <v>43862.0</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>181</v>
       </c>
       <c r="D2" t="s">
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>209</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>183</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>184</v>
       </c>
       <c r="I2" t="s">
         <v>44</v>
@@ -1038,7 +1185,7 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>167</v>
+        <v>210</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -1067,7 +1214,7 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
@@ -1096,7 +1243,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>169</v>
+        <v>212</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1125,7 +1272,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>170</v>
+        <v>213</v>
       </c>
       <c r="F6" t="s">
         <v>51</v>
@@ -1154,7 +1301,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1177,22 +1324,22 @@
         <v>44013.0</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>190</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>215</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>183</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="I8" t="s">
         <v>44</v>
@@ -1212,7 +1359,7 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1235,22 +1382,22 @@
         <v>43963.0</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>217</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>183</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
+        <v>196</v>
       </c>
       <c r="I10" t="s">
         <v>44</v>
@@ -1270,7 +1417,7 @@
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>173</v>
+        <v>218</v>
       </c>
       <c r="F11" t="s">
         <v>62</v>
@@ -1299,7 +1446,7 @@
         <v>96</v>
       </c>
       <c r="E12" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1328,7 +1475,7 @@
         <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -1357,7 +1504,7 @@
         <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>176</v>
+        <v>221</v>
       </c>
       <c r="F14" t="s">
         <v>67</v>
@@ -1386,7 +1533,7 @@
         <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>177</v>
+        <v>222</v>
       </c>
       <c r="F15" t="s">
         <v>72</v>
@@ -1415,7 +1562,7 @@
         <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="F16" t="s">
         <v>76</v>
@@ -1438,22 +1585,22 @@
         <v>43935.0</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>203</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>204</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>224</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>183</v>
       </c>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>206</v>
       </c>
       <c r="I17" t="s">
         <v>44</v>
@@ -1473,7 +1620,7 @@
         <v>79</v>
       </c>
       <c r="E18" t="s">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="F18" t="s">
         <v>81</v>
@@ -1502,7 +1649,7 @@
         <v>84</v>
       </c>
       <c r="E19" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="F19" t="s">
         <v>86</v>

--- a/Covid_19_Dataset_and_References/References/96.xlsx
+++ b/Covid_19_Dataset_and_References/References/96.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="263">
   <si>
     <t>Doi</t>
   </si>
@@ -793,6 +793,114 @@
   </si>
   <si>
     <t>[Wei%Liu%NULL%0,         Jing%Wang%NULL%0,         Wenbin%Li%NULL%1,         Zhaoxian%Zhou%NULL%1,         Siying%Liu%NULL%1,         Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Huaping%Zhu%xref no email%1,   Lin%Wang%xref no email%1,   Chengzhi%Fang%xref no email%1,   Sicong%Peng%xref no email%1,   Lianhong%Zhang%xref no email%1,   Guiping%Chang%xref no email%1,   Shiwen%Xia%xref no email%0,   Wenhao%Zhou%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,          Zhiqiang%Zhou%NULL%0,          Jianping%Zhang%NULL%0,          Fengfeng%Zhu%NULL%0,          Yongyan%Tang%NULL%0,          Xinghua%Shen%luckydrx@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%0,          Hua%Peng%NULL%1,          Lin%Wang%NULL%2,          Yin%Zhao%NULL%1,          Lingkong%Zeng%NULL%1,          Hui%Gao%NULL%1,          Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Suliman%Khan%NULL%1,          Liangyu%Peng%NULL%2,          Liangyu%Peng%NULL%0,          Rabeea%Siddique%NULL%1,          Ghulam%Nabi%NULL%1,          NULL%Nawsherwan%NULL%1,          Mengzhou%Xue%NULL%1,          Jianbo%Liu%NULL%1,          Guang%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,          Lefei%Han%NULL%1,          Min%Peng%2658706528@qq.com%1,          Yuxia%Lv%NULL%1,          Yin%Ouyang%NULL%1,          Kui%Liu%NULL%0,          Linli%Yue%NULL%1,          Qiannan%Li%NULL%1,          Guoqiang%Sun%NULL%2,          Lin%Chen%NULL%0,          Lin%Yang%l.yang@polyu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Nan%Yu%NULL%1,          Wei%Li%NULL%0,          Qingling%Kang%NULL%1,          Zhi%Xiong%NULL%1,          Shaoshuai%Wang%NULL%1,          Xingguang%Lin%NULL%1,          Yanyan%Liu%NULL%1,          Juan%Xiao%NULL%1,          Haiyi%Liu%NULL%1,          Dongrui%Deng%NULL%1,          Suhua%Chen%NULL%1,          Wanjiang%Zeng%NULL%1,          Ling%Feng%NULL%1,          Jianli%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lingkong%Zeng%xref no email%0,   Shiwen%Xia%xref no email%0,   Wenhao%Yuan%xref no email%0,   Kai%Yan%xref no email%0,   Feifan%Xiao%xref no email%0,   Jianbo%Shao%xref no email%0,   Wenhao%Zhou%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Nicoletta%Vendola%NULL%1,          Viviana%stampini%NULL%2,          Viviana%stampini%NULL%0,          Roberta%Amadori%NULL%2,          Roberta%Amadori%NULL%0,          Martina%Gerbino%NULL%2,          Martina%Gerbino%NULL%0,          Annalisa%Curatolo%NULL%2,          Annalisa%Curatolo%NULL%0,          Daniela%surico%NULL%2,          Daniela%surico%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lan%Dong%xref no email%0,   Jinhua%Tian%xref no email%0,   Songming%He%xref no email%0,   Chuchao%Zhu%xref no email%0,   Jian%Wang%xref no email%0,   Chen%Liu%xref no email%0,   Jing%Yang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Siyu%Chen%NULL%1,          E.%Liao%NULL%2,          E.%Liao%NULL%0,          Dongmei%Cao%NULL%1,          Ying%Gao%NULL%1,          Guoqiang%Sun%sun821ch@126.com%0,          Yong%Shao%cqshaoyong@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Baud%D.%coreGivesNoEmail%1,         Dubruc%E.%coreGivesNoEmail%1,         Favre%G.%coreGivesNoEmail%1,         Gengler%C.%coreGivesNoEmail%1,         Greub%G.%coreGivesNoEmail%1,         Jaton%K.%coreGivesNoEmail%1,         Pomar%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[AZAP%ALPAY%coreGivesNoEmail%0,         Kalafat%Erkan%coreGivesNoEmail%1,         KO\u00c7%ASLI%coreGivesNoEmail%1,         Ozisik%S.%coreGivesNoEmail%1,         UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%1,         VARLI%BULUT%coreGivesNoEmail%1,         Yaprak%E.%coreGivesNoEmail%1,         \u00c7INAR%G\u00dcLE%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%0,          Jianhui%Wang%NULL%1,          Yunbo%Mo%NULL%1,          Wei%Duan%NULL%0,          Guangjun%Xiang%NULL%1,          Ming%Yi%NULL%1,          Lei%Bao%NULL%1,          Yuan%Shi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,          Caitlin%Baptiste%NULL%1,          Cynthia%Gyamfi-Bannerman%NULL%1,          Russell%Miller%NULL%1,          Rebecca%Martinez%NULL%1,          Kyra%Bernstein%NULL%1,          Laurence%Ring%NULL%1,          Ruth%Landau%NULL%1,          Stephanie%Purisch%NULL%1,          Alexander M.%Friedman%NULL%1,          Karin%Fuchs%NULL%1,          Desmond%Sutton%NULL%1,          Maria%Andrikopoulou%NULL%1,          Devon%Rupley%NULL%1,          Jean-Ju%Sheen%NULL%1,          Janice%Aubey%NULL%1,          Noelia%Zork%NULL%1,          Leslie%Moroz%NULL%1,          Mirella%Mourad%NULL%1,          Ronald%Wapner%NULL%1,          Lynn L.%Simpson%NULL%1,          Mary E.%D’Alton%NULL%1,          Dena%Goffman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%0,          Hong%Wei%NULL%2,          Hong%Wei%NULL%0,          Zhihong%Zhang%NULL%1,          Jing%Chang%NULL%1,          Xiaopeng%Ma%NULL%1,          Xiang%Gao%NULL%1,          Qiang%Chen%qiangchen2015@sina.com%1,          Qiumei%Pang%pqm19650930@sina.com%2,          Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Mohammad%Khassawneh%xref no email%1,   Wasim%Khasawneh%xref no email%1,   Laila Al%Zaghal%xref no email%1,   Wail%Hayajneh%xref no email%1,   Fadel%Abdelal%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%0,          Yousef%Al Ahwel%NULL%1,          Anju%Suhag%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,          Jing%Wang%NULL%0,          Wenbin%Li%NULL%1,          Zhaoxian%Zhou%NULL%1,          Siying%Liu%NULL%1,          Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Huaping%Zhu%xref no email%1,    Lin%Wang%xref no email%1,    Chengzhi%Fang%xref no email%1,    Sicong%Peng%xref no email%1,    Lianhong%Zhang%xref no email%1,    Guiping%Chang%xref no email%1,    Shiwen%Xia%xref no email%0,    Wenhao%Zhou%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,           Zhiqiang%Zhou%NULL%0,           Jianping%Zhang%NULL%0,           Fengfeng%Zhu%NULL%0,           Yongyan%Tang%NULL%0,           Xinghua%Shen%luckydrx@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%0,           Hua%Peng%NULL%1,           Lin%Wang%NULL%2,           Yin%Zhao%NULL%1,           Lingkong%Zeng%NULL%1,           Hui%Gao%NULL%1,           Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Suliman%Khan%NULL%1,           Liangyu%Peng%NULL%2,           Liangyu%Peng%NULL%0,           Rabeea%Siddique%NULL%1,           Ghulam%Nabi%NULL%1,           NULL%Nawsherwan%NULL%1,           Mengzhou%Xue%NULL%1,           Jianbo%Liu%NULL%1,           Guang%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,           Lefei%Han%NULL%1,           Min%Peng%2658706528@qq.com%1,           Yuxia%Lv%NULL%1,           Yin%Ouyang%NULL%1,           Kui%Liu%NULL%0,           Linli%Yue%NULL%1,           Qiannan%Li%NULL%1,           Guoqiang%Sun%NULL%2,           Lin%Chen%NULL%0,           Lin%Yang%l.yang@polyu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Nan%Yu%NULL%1,           Wei%Li%NULL%0,           Qingling%Kang%NULL%1,           Zhi%Xiong%NULL%1,           Shaoshuai%Wang%NULL%1,           Xingguang%Lin%NULL%1,           Yanyan%Liu%NULL%1,           Juan%Xiao%NULL%1,           Haiyi%Liu%NULL%1,           Dongrui%Deng%NULL%1,           Suhua%Chen%NULL%1,           Wanjiang%Zeng%NULL%1,           Ling%Feng%NULL%1,           Jianli%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lingkong%Zeng%xref no email%0,    Shiwen%Xia%xref no email%0,    Wenhao%Yuan%xref no email%0,    Kai%Yan%xref no email%0,    Feifan%Xiao%xref no email%0,    Jianbo%Shao%xref no email%0,    Wenhao%Zhou%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Nicoletta%Vendola%NULL%1,           Viviana%stampini%NULL%2,           Viviana%stampini%NULL%0,           Roberta%Amadori%NULL%2,           Roberta%Amadori%NULL%0,           Martina%Gerbino%NULL%2,           Martina%Gerbino%NULL%0,           Annalisa%Curatolo%NULL%2,           Annalisa%Curatolo%NULL%0,           Daniela%surico%NULL%2,           Daniela%surico%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lan%Dong%xref no email%0,    Jinhua%Tian%xref no email%0,    Songming%He%xref no email%0,    Chuchao%Zhu%xref no email%0,    Jian%Wang%xref no email%0,    Chen%Liu%xref no email%0,    Jing%Yang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Siyu%Chen%NULL%1,           E.%Liao%NULL%2,           E.%Liao%NULL%0,           Dongmei%Cao%NULL%1,           Ying%Gao%NULL%1,           Guoqiang%Sun%sun821ch@126.com%0,           Yong%Shao%cqshaoyong@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Baud%D.%coreGivesNoEmail%1,          Dubruc%E.%coreGivesNoEmail%1,          Favre%G.%coreGivesNoEmail%1,          Gengler%C.%coreGivesNoEmail%1,          Greub%G.%coreGivesNoEmail%1,          Jaton%K.%coreGivesNoEmail%1,          Pomar%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[AZAP%ALPAY%coreGivesNoEmail%0,          Kalafat%Erkan%coreGivesNoEmail%1,          KO\u00c7%ASLI%coreGivesNoEmail%1,          Ozisik%S.%coreGivesNoEmail%1,          UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%1,          VARLI%BULUT%coreGivesNoEmail%1,          Yaprak%E.%coreGivesNoEmail%1,          \u00c7INAR%G\u00dcLE%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%0,           Jianhui%Wang%NULL%1,           Yunbo%Mo%NULL%1,           Wei%Duan%NULL%0,           Guangjun%Xiang%NULL%1,           Ming%Yi%NULL%1,           Lei%Bao%NULL%1,           Yuan%Shi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,           Caitlin%Baptiste%NULL%1,           Cynthia%Gyamfi-Bannerman%NULL%1,           Russell%Miller%NULL%1,           Rebecca%Martinez%NULL%1,           Kyra%Bernstein%NULL%1,           Laurence%Ring%NULL%1,           Ruth%Landau%NULL%1,           Stephanie%Purisch%NULL%1,           Alexander M.%Friedman%NULL%1,           Karin%Fuchs%NULL%1,           Desmond%Sutton%NULL%1,           Maria%Andrikopoulou%NULL%1,           Devon%Rupley%NULL%1,           Jean-Ju%Sheen%NULL%1,           Janice%Aubey%NULL%1,           Noelia%Zork%NULL%1,           Leslie%Moroz%NULL%1,           Mirella%Mourad%NULL%1,           Ronald%Wapner%NULL%1,           Lynn L.%Simpson%NULL%1,           Mary E.%D’Alton%NULL%1,           Dena%Goffman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%0,           Hong%Wei%NULL%2,           Hong%Wei%NULL%0,           Zhihong%Zhang%NULL%1,           Jing%Chang%NULL%1,           Xiaopeng%Ma%NULL%1,           Xiang%Gao%NULL%1,           Qiang%Chen%qiangchen2015@sina.com%1,           Qiumei%Pang%pqm19650930@sina.com%2,           Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Mohammad%Khassawneh%xref no email%1,    Wasim%Khasawneh%xref no email%1,    Laila Al%Zaghal%xref no email%1,    Wail%Hayajneh%xref no email%1,    Fadel%Abdelal%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%0,           Yousef%Al Ahwel%NULL%1,           Anju%Suhag%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,           Jing%Wang%NULL%0,           Wenbin%Li%NULL%1,           Zhaoxian%Zhou%NULL%1,           Siying%Liu%NULL%1,           Zhihui%Rong%rongzhihui53@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1156,7 +1264,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1185,7 +1293,7 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -1214,7 +1322,7 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
@@ -1243,7 +1351,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1272,7 +1380,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="F6" t="s">
         <v>51</v>
@@ -1301,7 +1409,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1330,7 +1438,7 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1359,7 +1467,7 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1388,7 +1496,7 @@
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1417,7 +1525,7 @@
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>218</v>
+        <v>254</v>
       </c>
       <c r="F11" t="s">
         <v>62</v>
@@ -1446,7 +1554,7 @@
         <v>96</v>
       </c>
       <c r="E12" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1475,7 +1583,7 @@
         <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>220</v>
+        <v>256</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -1504,7 +1612,7 @@
         <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>221</v>
+        <v>257</v>
       </c>
       <c r="F14" t="s">
         <v>67</v>
@@ -1533,7 +1641,7 @@
         <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="F15" t="s">
         <v>72</v>
@@ -1562,7 +1670,7 @@
         <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="F16" t="s">
         <v>76</v>
@@ -1591,7 +1699,7 @@
         <v>204</v>
       </c>
       <c r="E17" t="s">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -1620,7 +1728,7 @@
         <v>79</v>
       </c>
       <c r="E18" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="F18" t="s">
         <v>81</v>
@@ -1649,7 +1757,7 @@
         <v>84</v>
       </c>
       <c r="E19" t="s">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="F19" t="s">
         <v>86</v>

--- a/Covid_19_Dataset_and_References/References/96.xlsx
+++ b/Covid_19_Dataset_and_References/References/96.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="299">
   <si>
     <t>Doi</t>
   </si>
@@ -901,6 +901,114 @@
   </si>
   <si>
     <t>[Wei%Liu%NULL%0,           Jing%Wang%NULL%0,           Wenbin%Li%NULL%1,           Zhaoxian%Zhou%NULL%1,           Siying%Liu%NULL%1,           Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Huaping%Zhu%xref no email%1,     Lin%Wang%xref no email%1,     Chengzhi%Fang%xref no email%1,     Sicong%Peng%xref no email%1,     Lianhong%Zhang%xref no email%1,     Guiping%Chang%xref no email%1,     Shiwen%Xia%xref no email%0,     Wenhao%Zhou%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,            Zhiqiang%Zhou%NULL%0,            Jianping%Zhang%NULL%0,            Fengfeng%Zhu%NULL%0,            Yongyan%Tang%NULL%0,            Xinghua%Shen%luckydrx@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%0,            Hua%Peng%NULL%1,            Lin%Wang%NULL%2,            Yin%Zhao%NULL%1,            Lingkong%Zeng%NULL%1,            Hui%Gao%NULL%1,            Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Suliman%Khan%NULL%1,            Liangyu%Peng%NULL%2,            Liangyu%Peng%NULL%0,            Rabeea%Siddique%NULL%1,            Ghulam%Nabi%NULL%1,            NULL%Nawsherwan%NULL%1,            Mengzhou%Xue%NULL%1,            Jianbo%Liu%NULL%1,            Guang%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,            Lefei%Han%NULL%1,            Min%Peng%2658706528@qq.com%1,            Yuxia%Lv%NULL%1,            Yin%Ouyang%NULL%1,            Kui%Liu%NULL%0,            Linli%Yue%NULL%1,            Qiannan%Li%NULL%1,            Guoqiang%Sun%NULL%2,            Lin%Chen%NULL%0,            Lin%Yang%l.yang@polyu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Nan%Yu%NULL%1,            Wei%Li%NULL%0,            Qingling%Kang%NULL%1,            Zhi%Xiong%NULL%1,            Shaoshuai%Wang%NULL%1,            Xingguang%Lin%NULL%1,            Yanyan%Liu%NULL%1,            Juan%Xiao%NULL%1,            Haiyi%Liu%NULL%1,            Dongrui%Deng%NULL%1,            Suhua%Chen%NULL%1,            Wanjiang%Zeng%NULL%1,            Ling%Feng%NULL%1,            Jianli%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lingkong%Zeng%xref no email%0,     Shiwen%Xia%xref no email%0,     Wenhao%Yuan%xref no email%0,     Kai%Yan%xref no email%0,     Feifan%Xiao%xref no email%0,     Jianbo%Shao%xref no email%0,     Wenhao%Zhou%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Nicoletta%Vendola%NULL%1,            Viviana%stampini%NULL%2,            Viviana%stampini%NULL%0,            Roberta%Amadori%NULL%2,            Roberta%Amadori%NULL%0,            Martina%Gerbino%NULL%2,            Martina%Gerbino%NULL%0,            Annalisa%Curatolo%NULL%2,            Annalisa%Curatolo%NULL%0,            Daniela%surico%NULL%2,            Daniela%surico%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lan%Dong%xref no email%0,     Jinhua%Tian%xref no email%0,     Songming%He%xref no email%0,     Chuchao%Zhu%xref no email%0,     Jian%Wang%xref no email%0,     Chen%Liu%xref no email%0,     Jing%Yang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Siyu%Chen%NULL%1,            E.%Liao%NULL%2,            E.%Liao%NULL%0,            Dongmei%Cao%NULL%1,            Ying%Gao%NULL%1,            Guoqiang%Sun%sun821ch@126.com%0,            Yong%Shao%cqshaoyong@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Baud%D.%coreGivesNoEmail%1,           Dubruc%E.%coreGivesNoEmail%1,           Favre%G.%coreGivesNoEmail%1,           Gengler%C.%coreGivesNoEmail%1,           Greub%G.%coreGivesNoEmail%1,           Jaton%K.%coreGivesNoEmail%1,           Pomar%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[AZAP%ALPAY%coreGivesNoEmail%0,           Kalafat%Erkan%coreGivesNoEmail%1,           KO\u00c7%ASLI%coreGivesNoEmail%1,           Ozisik%S.%coreGivesNoEmail%1,           UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%1,           VARLI%BULUT%coreGivesNoEmail%1,           Yaprak%E.%coreGivesNoEmail%1,           \u00c7INAR%G\u00dcLE%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%0,            Jianhui%Wang%NULL%1,            Yunbo%Mo%NULL%1,            Wei%Duan%NULL%0,            Guangjun%Xiang%NULL%1,            Ming%Yi%NULL%1,            Lei%Bao%NULL%1,            Yuan%Shi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,            Caitlin%Baptiste%NULL%1,            Cynthia%Gyamfi-Bannerman%NULL%1,            Russell%Miller%NULL%1,            Rebecca%Martinez%NULL%1,            Kyra%Bernstein%NULL%1,            Laurence%Ring%NULL%1,            Ruth%Landau%NULL%1,            Stephanie%Purisch%NULL%1,            Alexander M.%Friedman%NULL%1,            Karin%Fuchs%NULL%1,            Desmond%Sutton%NULL%1,            Maria%Andrikopoulou%NULL%1,            Devon%Rupley%NULL%1,            Jean-Ju%Sheen%NULL%1,            Janice%Aubey%NULL%1,            Noelia%Zork%NULL%1,            Leslie%Moroz%NULL%1,            Mirella%Mourad%NULL%1,            Ronald%Wapner%NULL%1,            Lynn L.%Simpson%NULL%1,            Mary E.%D’Alton%NULL%1,            Dena%Goffman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%0,            Hong%Wei%NULL%2,            Hong%Wei%NULL%0,            Zhihong%Zhang%NULL%1,            Jing%Chang%NULL%1,            Xiaopeng%Ma%NULL%1,            Xiang%Gao%NULL%1,            Qiang%Chen%qiangchen2015@sina.com%1,            Qiumei%Pang%pqm19650930@sina.com%2,            Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Mohammad%Khassawneh%xref no email%1,     Wasim%Khasawneh%xref no email%1,     Laila Al%Zaghal%xref no email%1,     Wail%Hayajneh%xref no email%1,     Fadel%Abdelal%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%0,            Yousef%Al Ahwel%NULL%1,            Anju%Suhag%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,            Jing%Wang%NULL%0,            Wenbin%Li%NULL%1,            Zhaoxian%Zhou%NULL%1,            Siying%Liu%NULL%1,            Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Huaping%Zhu%xref no email%1,      Lin%Wang%xref no email%1,      Chengzhi%Fang%xref no email%1,      Sicong%Peng%xref no email%1,      Lianhong%Zhang%xref no email%1,      Guiping%Chang%xref no email%1,      Shiwen%Xia%xref no email%0,      Wenhao%Zhou%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,             Zhiqiang%Zhou%NULL%0,             Jianping%Zhang%NULL%0,             Fengfeng%Zhu%NULL%0,             Yongyan%Tang%NULL%0,             Xinghua%Shen%luckydrx@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%0,             Hua%Peng%NULL%1,             Lin%Wang%NULL%2,             Yin%Zhao%NULL%1,             Lingkong%Zeng%NULL%1,             Hui%Gao%NULL%1,             Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Suliman%Khan%NULL%1,             Liangyu%Peng%NULL%2,             Liangyu%Peng%NULL%0,             Rabeea%Siddique%NULL%1,             Ghulam%Nabi%NULL%1,             NULL%Nawsherwan%NULL%1,             Mengzhou%Xue%NULL%1,             Jianbo%Liu%NULL%1,             Guang%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,             Lefei%Han%NULL%1,             Min%Peng%2658706528@qq.com%1,             Yuxia%Lv%NULL%1,             Yin%Ouyang%NULL%1,             Kui%Liu%NULL%0,             Linli%Yue%NULL%1,             Qiannan%Li%NULL%1,             Guoqiang%Sun%NULL%2,             Lin%Chen%NULL%0,             Lin%Yang%l.yang@polyu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Nan%Yu%NULL%1,             Wei%Li%NULL%0,             Qingling%Kang%NULL%1,             Zhi%Xiong%NULL%1,             Shaoshuai%Wang%NULL%1,             Xingguang%Lin%NULL%1,             Yanyan%Liu%NULL%1,             Juan%Xiao%NULL%1,             Haiyi%Liu%NULL%1,             Dongrui%Deng%NULL%1,             Suhua%Chen%NULL%1,             Wanjiang%Zeng%NULL%1,             Ling%Feng%NULL%1,             Jianli%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lingkong%Zeng%xref no email%0,      Shiwen%Xia%xref no email%0,      Wenhao%Yuan%xref no email%0,      Kai%Yan%xref no email%0,      Feifan%Xiao%xref no email%0,      Jianbo%Shao%xref no email%0,      Wenhao%Zhou%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Nicoletta%Vendola%NULL%1,             Viviana%stampini%NULL%2,             Viviana%stampini%NULL%0,             Roberta%Amadori%NULL%2,             Roberta%Amadori%NULL%0,             Martina%Gerbino%NULL%2,             Martina%Gerbino%NULL%0,             Annalisa%Curatolo%NULL%2,             Annalisa%Curatolo%NULL%0,             Daniela%surico%NULL%2,             Daniela%surico%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lan%Dong%xref no email%0,      Jinhua%Tian%xref no email%0,      Songming%He%xref no email%0,      Chuchao%Zhu%xref no email%0,      Jian%Wang%xref no email%0,      Chen%Liu%xref no email%0,      Jing%Yang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Siyu%Chen%NULL%1,             E.%Liao%NULL%2,             E.%Liao%NULL%0,             Dongmei%Cao%NULL%1,             Ying%Gao%NULL%1,             Guoqiang%Sun%sun821ch@126.com%0,             Yong%Shao%cqshaoyong@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Baud%D.%coreGivesNoEmail%1,            Dubruc%E.%coreGivesNoEmail%1,            Favre%G.%coreGivesNoEmail%1,            Gengler%C.%coreGivesNoEmail%1,            Greub%G.%coreGivesNoEmail%1,            Jaton%K.%coreGivesNoEmail%1,            Pomar%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[AZAP%ALPAY%coreGivesNoEmail%0,            Kalafat%Erkan%coreGivesNoEmail%1,            KO\u00c7%ASLI%coreGivesNoEmail%1,            Ozisik%S.%coreGivesNoEmail%1,            UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%1,            VARLI%BULUT%coreGivesNoEmail%1,            Yaprak%E.%coreGivesNoEmail%1,            \u00c7INAR%G\u00dcLE%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%0,             Jianhui%Wang%NULL%1,             Yunbo%Mo%NULL%1,             Wei%Duan%NULL%0,             Guangjun%Xiang%NULL%1,             Ming%Yi%NULL%1,             Lei%Bao%NULL%1,             Yuan%Shi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,             Caitlin%Baptiste%NULL%1,             Cynthia%Gyamfi-Bannerman%NULL%1,             Russell%Miller%NULL%1,             Rebecca%Martinez%NULL%1,             Kyra%Bernstein%NULL%1,             Laurence%Ring%NULL%1,             Ruth%Landau%NULL%1,             Stephanie%Purisch%NULL%1,             Alexander M.%Friedman%NULL%1,             Karin%Fuchs%NULL%1,             Desmond%Sutton%NULL%1,             Maria%Andrikopoulou%NULL%1,             Devon%Rupley%NULL%1,             Jean-Ju%Sheen%NULL%1,             Janice%Aubey%NULL%1,             Noelia%Zork%NULL%1,             Leslie%Moroz%NULL%1,             Mirella%Mourad%NULL%1,             Ronald%Wapner%NULL%1,             Lynn L.%Simpson%NULL%1,             Mary E.%D’Alton%NULL%1,             Dena%Goffman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%0,             Hong%Wei%NULL%2,             Hong%Wei%NULL%0,             Zhihong%Zhang%NULL%1,             Jing%Chang%NULL%1,             Xiaopeng%Ma%NULL%1,             Xiang%Gao%NULL%1,             Qiang%Chen%qiangchen2015@sina.com%1,             Qiumei%Pang%pqm19650930@sina.com%2,             Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Mohammad%Khassawneh%xref no email%1,      Wasim%Khasawneh%xref no email%1,      Laila Al%Zaghal%xref no email%1,      Wail%Hayajneh%xref no email%1,      Fadel%Abdelal%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%0,             Yousef%Al Ahwel%NULL%1,             Anju%Suhag%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,             Jing%Wang%NULL%0,             Wenbin%Li%NULL%1,             Zhaoxian%Zhou%NULL%1,             Siying%Liu%NULL%1,             Zhihui%Rong%rongzhihui53@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1264,7 +1372,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1293,7 +1401,7 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -1322,7 +1430,7 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
@@ -1351,7 +1459,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1380,7 +1488,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="F6" t="s">
         <v>51</v>
@@ -1409,7 +1517,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1438,7 +1546,7 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1467,7 +1575,7 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1496,7 +1604,7 @@
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1525,7 +1633,7 @@
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="F11" t="s">
         <v>62</v>
@@ -1554,7 +1662,7 @@
         <v>96</v>
       </c>
       <c r="E12" t="s">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1583,7 +1691,7 @@
         <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -1612,7 +1720,7 @@
         <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="F14" t="s">
         <v>67</v>
@@ -1641,7 +1749,7 @@
         <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="F15" t="s">
         <v>72</v>
@@ -1670,7 +1778,7 @@
         <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="F16" t="s">
         <v>76</v>
@@ -1699,7 +1807,7 @@
         <v>204</v>
       </c>
       <c r="E17" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -1728,7 +1836,7 @@
         <v>79</v>
       </c>
       <c r="E18" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="F18" t="s">
         <v>81</v>
@@ -1757,7 +1865,7 @@
         <v>84</v>
       </c>
       <c r="E19" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="F19" t="s">
         <v>86</v>

--- a/Covid_19_Dataset_and_References/References/96.xlsx
+++ b/Covid_19_Dataset_and_References/References/96.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="317">
   <si>
     <t>Doi</t>
   </si>
@@ -1009,6 +1009,60 @@
   </si>
   <si>
     <t>[Wei%Liu%NULL%0,             Jing%Wang%NULL%0,             Wenbin%Li%NULL%1,             Zhaoxian%Zhou%NULL%1,             Siying%Liu%NULL%1,             Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Huaping%Zhu%xref no email%1,       Lin%Wang%xref no email%1,       Chengzhi%Fang%xref no email%1,       Sicong%Peng%xref no email%1,       Lianhong%Zhang%xref no email%1,       Guiping%Chang%xref no email%1,       Shiwen%Xia%xref no email%0,       Wenhao%Zhou%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,              Zhiqiang%Zhou%NULL%0,              Jianping%Zhang%NULL%0,              Fengfeng%Zhu%NULL%0,              Yongyan%Tang%NULL%0,              Xinghua%Shen%luckydrx@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%0,              Hua%Peng%NULL%1,              Lin%Wang%NULL%2,              Yin%Zhao%NULL%1,              Lingkong%Zeng%NULL%1,              Hui%Gao%NULL%1,              Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Suliman%Khan%NULL%1,              Liangyu%Peng%NULL%2,              Liangyu%Peng%NULL%0,              Rabeea%Siddique%NULL%1,              Ghulam%Nabi%NULL%1,              NULL%Nawsherwan%NULL%1,              Mengzhou%Xue%NULL%1,              Jianbo%Liu%NULL%1,              Guang%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,              Lefei%Han%NULL%1,              Min%Peng%2658706528@qq.com%1,              Yuxia%Lv%NULL%1,              Yin%Ouyang%NULL%1,              Kui%Liu%NULL%0,              Linli%Yue%NULL%1,              Qiannan%Li%NULL%1,              Guoqiang%Sun%NULL%2,              Lin%Chen%NULL%0,              Lin%Yang%l.yang@polyu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Nan%Yu%NULL%1,              Wei%Li%NULL%0,              Qingling%Kang%NULL%1,              Zhi%Xiong%NULL%1,              Shaoshuai%Wang%NULL%1,              Xingguang%Lin%NULL%1,              Yanyan%Liu%NULL%1,              Juan%Xiao%NULL%1,              Haiyi%Liu%NULL%1,              Dongrui%Deng%NULL%1,              Suhua%Chen%NULL%1,              Wanjiang%Zeng%NULL%1,              Ling%Feng%NULL%1,              Jianli%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lingkong%Zeng%xref no email%0,       Shiwen%Xia%xref no email%0,       Wenhao%Yuan%xref no email%0,       Kai%Yan%xref no email%0,       Feifan%Xiao%xref no email%0,       Jianbo%Shao%xref no email%0,       Wenhao%Zhou%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Nicoletta%Vendola%NULL%1,              Viviana%stampini%NULL%2,              Viviana%stampini%NULL%0,              Roberta%Amadori%NULL%2,              Roberta%Amadori%NULL%0,              Martina%Gerbino%NULL%2,              Martina%Gerbino%NULL%0,              Annalisa%Curatolo%NULL%2,              Annalisa%Curatolo%NULL%0,              Daniela%surico%NULL%2,              Daniela%surico%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lan%Dong%xref no email%0,       Jinhua%Tian%xref no email%0,       Songming%He%xref no email%0,       Chuchao%Zhu%xref no email%0,       Jian%Wang%xref no email%0,       Chen%Liu%xref no email%0,       Jing%Yang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Siyu%Chen%NULL%1,              E.%Liao%NULL%2,              E.%Liao%NULL%0,              Dongmei%Cao%NULL%1,              Ying%Gao%NULL%1,              Guoqiang%Sun%sun821ch@126.com%0,              Yong%Shao%cqshaoyong@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Baud%D.%coreGivesNoEmail%1,             Dubruc%E.%coreGivesNoEmail%1,             Favre%G.%coreGivesNoEmail%1,             Gengler%C.%coreGivesNoEmail%1,             Greub%G.%coreGivesNoEmail%1,             Jaton%K.%coreGivesNoEmail%1,             Pomar%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[AZAP%ALPAY%coreGivesNoEmail%0,             Kalafat%Erkan%coreGivesNoEmail%1,             KO\u00c7%ASLI%coreGivesNoEmail%1,             Ozisik%S.%coreGivesNoEmail%1,             UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%1,             VARLI%BULUT%coreGivesNoEmail%1,             Yaprak%E.%coreGivesNoEmail%1,             \u00c7INAR%G\u00dcLE%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%0,              Jianhui%Wang%NULL%1,              Yunbo%Mo%NULL%1,              Wei%Duan%NULL%0,              Guangjun%Xiang%NULL%1,              Ming%Yi%NULL%1,              Lei%Bao%NULL%1,              Yuan%Shi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,              Caitlin%Baptiste%NULL%1,              Cynthia%Gyamfi-Bannerman%NULL%1,              Russell%Miller%NULL%1,              Rebecca%Martinez%NULL%1,              Kyra%Bernstein%NULL%1,              Laurence%Ring%NULL%1,              Ruth%Landau%NULL%1,              Stephanie%Purisch%NULL%1,              Alexander M.%Friedman%NULL%1,              Karin%Fuchs%NULL%1,              Desmond%Sutton%NULL%1,              Maria%Andrikopoulou%NULL%1,              Devon%Rupley%NULL%1,              Jean-Ju%Sheen%NULL%1,              Janice%Aubey%NULL%1,              Noelia%Zork%NULL%1,              Leslie%Moroz%NULL%1,              Mirella%Mourad%NULL%1,              Ronald%Wapner%NULL%1,              Lynn L.%Simpson%NULL%1,              Mary E.%D’Alton%NULL%1,              Dena%Goffman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%0,              Hong%Wei%NULL%2,              Hong%Wei%NULL%0,              Zhihong%Zhang%NULL%1,              Jing%Chang%NULL%1,              Xiaopeng%Ma%NULL%1,              Xiang%Gao%NULL%1,              Qiang%Chen%qiangchen2015@sina.com%1,              Qiumei%Pang%pqm19650930@sina.com%2,              Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Mohammad%Khassawneh%xref no email%1,       Wasim%Khasawneh%xref no email%1,       Laila Al%Zaghal%xref no email%1,       Wail%Hayajneh%xref no email%1,       Fadel%Abdelal%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%0,              Yousef%Al Ahwel%NULL%1,              Anju%Suhag%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,              Jing%Wang%NULL%0,              Wenbin%Li%NULL%1,              Zhaoxian%Zhou%NULL%1,              Siying%Liu%NULL%1,              Zhihui%Rong%rongzhihui53@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1372,7 +1426,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1401,7 +1455,7 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -1430,7 +1484,7 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
@@ -1459,7 +1513,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1488,7 +1542,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="F6" t="s">
         <v>51</v>
@@ -1517,7 +1571,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1546,7 +1600,7 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1575,7 +1629,7 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1604,7 +1658,7 @@
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1633,7 +1687,7 @@
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="F11" t="s">
         <v>62</v>
@@ -1662,7 +1716,7 @@
         <v>96</v>
       </c>
       <c r="E12" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1691,7 +1745,7 @@
         <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -1720,7 +1774,7 @@
         <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="F14" t="s">
         <v>67</v>
@@ -1749,7 +1803,7 @@
         <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="F15" t="s">
         <v>72</v>
@@ -1778,7 +1832,7 @@
         <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="F16" t="s">
         <v>76</v>
@@ -1807,7 +1861,7 @@
         <v>204</v>
       </c>
       <c r="E17" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -1836,7 +1890,7 @@
         <v>79</v>
       </c>
       <c r="E18" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="F18" t="s">
         <v>81</v>
@@ -1865,7 +1919,7 @@
         <v>84</v>
       </c>
       <c r="E19" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="F19" t="s">
         <v>86</v>

--- a/Covid_19_Dataset_and_References/References/96.xlsx
+++ b/Covid_19_Dataset_and_References/References/96.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2111" uniqueCount="335">
   <si>
     <t>Doi</t>
   </si>
@@ -1063,6 +1063,60 @@
   </si>
   <si>
     <t>[Wei%Liu%NULL%0,              Jing%Wang%NULL%0,              Wenbin%Li%NULL%1,              Zhaoxian%Zhou%NULL%1,              Siying%Liu%NULL%1,              Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Huaping%Zhu%xref no email%1,        Lin%Wang%xref no email%1,        Chengzhi%Fang%xref no email%1,        Sicong%Peng%xref no email%1,        Lianhong%Zhang%xref no email%1,        Guiping%Chang%xref no email%1,        Shiwen%Xia%xref no email%0,        Wenhao%Zhou%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,               Zhiqiang%Zhou%NULL%0,               Jianping%Zhang%NULL%0,               Fengfeng%Zhu%NULL%0,               Yongyan%Tang%NULL%0,               Xinghua%Shen%luckydrx@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%0,               Hua%Peng%NULL%1,               Lin%Wang%NULL%2,               Yin%Zhao%NULL%1,               Lingkong%Zeng%NULL%1,               Hui%Gao%NULL%1,               Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Suliman%Khan%NULL%1,               Liangyu%Peng%NULL%2,               Liangyu%Peng%NULL%0,               Rabeea%Siddique%NULL%1,               Ghulam%Nabi%NULL%1,               NULL%Nawsherwan%NULL%1,               Mengzhou%Xue%NULL%1,               Jianbo%Liu%NULL%1,               Guang%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,               Lefei%Han%NULL%1,               Min%Peng%2658706528@qq.com%1,               Yuxia%Lv%NULL%1,               Yin%Ouyang%NULL%1,               Kui%Liu%NULL%0,               Linli%Yue%NULL%1,               Qiannan%Li%NULL%1,               Guoqiang%Sun%NULL%2,               Lin%Chen%NULL%0,               Lin%Yang%l.yang@polyu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Nan%Yu%NULL%1,               Wei%Li%NULL%0,               Qingling%Kang%NULL%1,               Zhi%Xiong%NULL%1,               Shaoshuai%Wang%NULL%1,               Xingguang%Lin%NULL%1,               Yanyan%Liu%NULL%1,               Juan%Xiao%NULL%1,               Haiyi%Liu%NULL%1,               Dongrui%Deng%NULL%1,               Suhua%Chen%NULL%1,               Wanjiang%Zeng%NULL%1,               Ling%Feng%NULL%1,               Jianli%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lingkong%Zeng%xref no email%0,        Shiwen%Xia%xref no email%0,        Wenhao%Yuan%xref no email%0,        Kai%Yan%xref no email%0,        Feifan%Xiao%xref no email%0,        Jianbo%Shao%xref no email%0,        Wenhao%Zhou%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Nicoletta%Vendola%NULL%1,               Viviana%stampini%NULL%2,               Viviana%stampini%NULL%0,               Roberta%Amadori%NULL%2,               Roberta%Amadori%NULL%0,               Martina%Gerbino%NULL%2,               Martina%Gerbino%NULL%0,               Annalisa%Curatolo%NULL%2,               Annalisa%Curatolo%NULL%0,               Daniela%surico%NULL%2,               Daniela%surico%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lan%Dong%xref no email%0,        Jinhua%Tian%xref no email%0,        Songming%He%xref no email%0,        Chuchao%Zhu%xref no email%0,        Jian%Wang%xref no email%0,        Chen%Liu%xref no email%0,        Jing%Yang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Siyu%Chen%NULL%1,               E.%Liao%NULL%2,               E.%Liao%NULL%0,               Dongmei%Cao%NULL%1,               Ying%Gao%NULL%1,               Guoqiang%Sun%sun821ch@126.com%0,               Yong%Shao%cqshaoyong@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Baud%D.%coreGivesNoEmail%1,              Dubruc%E.%coreGivesNoEmail%1,              Favre%G.%coreGivesNoEmail%1,              Gengler%C.%coreGivesNoEmail%1,              Greub%G.%coreGivesNoEmail%1,              Jaton%K.%coreGivesNoEmail%1,              Pomar%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[AZAP%ALPAY%coreGivesNoEmail%0,              Kalafat%Erkan%coreGivesNoEmail%1,              KO\u00c7%ASLI%coreGivesNoEmail%1,              Ozisik%S.%coreGivesNoEmail%1,              UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%1,              VARLI%BULUT%coreGivesNoEmail%1,              Yaprak%E.%coreGivesNoEmail%1,              \u00c7INAR%G\u00dcLE%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%0,               Jianhui%Wang%NULL%1,               Yunbo%Mo%NULL%1,               Wei%Duan%NULL%0,               Guangjun%Xiang%NULL%1,               Ming%Yi%NULL%1,               Lei%Bao%NULL%1,               Yuan%Shi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,               Caitlin%Baptiste%NULL%1,               Cynthia%Gyamfi-Bannerman%NULL%1,               Russell%Miller%NULL%1,               Rebecca%Martinez%NULL%1,               Kyra%Bernstein%NULL%1,               Laurence%Ring%NULL%1,               Ruth%Landau%NULL%1,               Stephanie%Purisch%NULL%1,               Alexander M.%Friedman%NULL%1,               Karin%Fuchs%NULL%1,               Desmond%Sutton%NULL%1,               Maria%Andrikopoulou%NULL%1,               Devon%Rupley%NULL%1,               Jean-Ju%Sheen%NULL%1,               Janice%Aubey%NULL%1,               Noelia%Zork%NULL%1,               Leslie%Moroz%NULL%1,               Mirella%Mourad%NULL%1,               Ronald%Wapner%NULL%1,               Lynn L.%Simpson%NULL%1,               Mary E.%D’Alton%NULL%1,               Dena%Goffman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%0,               Hong%Wei%NULL%2,               Hong%Wei%NULL%0,               Zhihong%Zhang%NULL%1,               Jing%Chang%NULL%1,               Xiaopeng%Ma%NULL%1,               Xiang%Gao%NULL%1,               Qiang%Chen%qiangchen2015@sina.com%1,               Qiumei%Pang%pqm19650930@sina.com%2,               Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Mohammad%Khassawneh%xref no email%1,        Wasim%Khasawneh%xref no email%1,        Laila Al%Zaghal%xref no email%1,        Wail%Hayajneh%xref no email%1,        Fadel%Abdelal%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%0,               Yousef%Al Ahwel%NULL%1,               Anju%Suhag%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,               Jing%Wang%NULL%0,               Wenbin%Li%NULL%1,               Zhaoxian%Zhou%NULL%1,               Siying%Liu%NULL%1,               Zhihui%Rong%rongzhihui53@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1426,7 +1480,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1455,7 +1509,7 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -1484,7 +1538,7 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
@@ -1513,7 +1567,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1542,7 +1596,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="F6" t="s">
         <v>51</v>
@@ -1571,7 +1625,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1600,7 +1654,7 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1629,7 +1683,7 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1658,7 +1712,7 @@
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1687,7 +1741,7 @@
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="F11" t="s">
         <v>62</v>
@@ -1716,7 +1770,7 @@
         <v>96</v>
       </c>
       <c r="E12" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1745,7 +1799,7 @@
         <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -1774,7 +1828,7 @@
         <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="F14" t="s">
         <v>67</v>
@@ -1803,7 +1857,7 @@
         <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="F15" t="s">
         <v>72</v>
@@ -1832,7 +1886,7 @@
         <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="F16" t="s">
         <v>76</v>
@@ -1861,7 +1915,7 @@
         <v>204</v>
       </c>
       <c r="E17" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -1890,7 +1944,7 @@
         <v>79</v>
       </c>
       <c r="E18" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="F18" t="s">
         <v>81</v>
@@ -1919,7 +1973,7 @@
         <v>84</v>
       </c>
       <c r="E19" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="F19" t="s">
         <v>86</v>

--- a/Covid_19_Dataset_and_References/References/96.xlsx
+++ b/Covid_19_Dataset_and_References/References/96.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2111" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2377" uniqueCount="371">
   <si>
     <t>Doi</t>
   </si>
@@ -1117,6 +1117,114 @@
   </si>
   <si>
     <t>[Wei%Liu%NULL%0,               Jing%Wang%NULL%0,               Wenbin%Li%NULL%1,               Zhaoxian%Zhou%NULL%1,               Siying%Liu%NULL%1,               Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Huaping%Zhu%xref no email%1,         Lin%Wang%xref no email%1,         Chengzhi%Fang%xref no email%1,         Sicong%Peng%xref no email%1,         Lianhong%Zhang%xref no email%1,         Guiping%Chang%xref no email%1,         Shiwen%Xia%xref no email%0,         Wenhao%Zhou%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,                Zhiqiang%Zhou%NULL%0,                Jianping%Zhang%NULL%0,                Fengfeng%Zhu%NULL%0,                Yongyan%Tang%NULL%0,                Xinghua%Shen%luckydrx@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%0,                Hua%Peng%NULL%1,                Lin%Wang%NULL%2,                Yin%Zhao%NULL%1,                Lingkong%Zeng%NULL%1,                Hui%Gao%NULL%1,                Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Suliman%Khan%NULL%1,                Liangyu%Peng%NULL%2,                Liangyu%Peng%NULL%0,                Rabeea%Siddique%NULL%1,                Ghulam%Nabi%NULL%1,                NULL%Nawsherwan%NULL%1,                Mengzhou%Xue%NULL%1,                Jianbo%Liu%NULL%1,                Guang%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,                Lefei%Han%NULL%1,                Min%Peng%2658706528@qq.com%1,                Yuxia%Lv%NULL%1,                Yin%Ouyang%NULL%1,                Kui%Liu%NULL%0,                Linli%Yue%NULL%1,                Qiannan%Li%NULL%1,                Guoqiang%Sun%NULL%2,                Lin%Chen%NULL%0,                Lin%Yang%l.yang@polyu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Nan%Yu%NULL%1,                Wei%Li%NULL%0,                Qingling%Kang%NULL%1,                Zhi%Xiong%NULL%1,                Shaoshuai%Wang%NULL%1,                Xingguang%Lin%NULL%1,                Yanyan%Liu%NULL%1,                Juan%Xiao%NULL%1,                Haiyi%Liu%NULL%1,                Dongrui%Deng%NULL%1,                Suhua%Chen%NULL%1,                Wanjiang%Zeng%NULL%1,                Ling%Feng%NULL%1,                Jianli%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lingkong%Zeng%xref no email%0,         Shiwen%Xia%xref no email%0,         Wenhao%Yuan%xref no email%0,         Kai%Yan%xref no email%0,         Feifan%Xiao%xref no email%0,         Jianbo%Shao%xref no email%0,         Wenhao%Zhou%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Nicoletta%Vendola%NULL%1,                Viviana%stampini%NULL%2,                Viviana%stampini%NULL%0,                Roberta%Amadori%NULL%2,                Roberta%Amadori%NULL%0,                Martina%Gerbino%NULL%2,                Martina%Gerbino%NULL%0,                Annalisa%Curatolo%NULL%2,                Annalisa%Curatolo%NULL%0,                Daniela%surico%NULL%2,                Daniela%surico%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lan%Dong%xref no email%0,         Jinhua%Tian%xref no email%0,         Songming%He%xref no email%0,         Chuchao%Zhu%xref no email%0,         Jian%Wang%xref no email%0,         Chen%Liu%xref no email%0,         Jing%Yang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Siyu%Chen%NULL%1,                E.%Liao%NULL%2,                E.%Liao%NULL%0,                Dongmei%Cao%NULL%1,                Ying%Gao%NULL%1,                Guoqiang%Sun%sun821ch@126.com%0,                Yong%Shao%cqshaoyong@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Baud%D.%coreGivesNoEmail%1,               Dubruc%E.%coreGivesNoEmail%1,               Favre%G.%coreGivesNoEmail%1,               Gengler%C.%coreGivesNoEmail%1,               Greub%G.%coreGivesNoEmail%1,               Jaton%K.%coreGivesNoEmail%1,               Pomar%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[AZAP%ALPAY%coreGivesNoEmail%0,               Kalafat%Erkan%coreGivesNoEmail%1,               KO\u00c7%ASLI%coreGivesNoEmail%1,               Ozisik%S.%coreGivesNoEmail%1,               UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%1,               VARLI%BULUT%coreGivesNoEmail%1,               Yaprak%E.%coreGivesNoEmail%1,               \u00c7INAR%G\u00dcLE%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%0,                Jianhui%Wang%NULL%1,                Yunbo%Mo%NULL%1,                Wei%Duan%NULL%0,                Guangjun%Xiang%NULL%1,                Ming%Yi%NULL%1,                Lei%Bao%NULL%1,                Yuan%Shi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,                Caitlin%Baptiste%NULL%1,                Cynthia%Gyamfi-Bannerman%NULL%1,                Russell%Miller%NULL%1,                Rebecca%Martinez%NULL%1,                Kyra%Bernstein%NULL%1,                Laurence%Ring%NULL%1,                Ruth%Landau%NULL%1,                Stephanie%Purisch%NULL%1,                Alexander M.%Friedman%NULL%1,                Karin%Fuchs%NULL%1,                Desmond%Sutton%NULL%1,                Maria%Andrikopoulou%NULL%1,                Devon%Rupley%NULL%1,                Jean-Ju%Sheen%NULL%1,                Janice%Aubey%NULL%1,                Noelia%Zork%NULL%1,                Leslie%Moroz%NULL%1,                Mirella%Mourad%NULL%1,                Ronald%Wapner%NULL%1,                Lynn L.%Simpson%NULL%1,                Mary E.%D’Alton%NULL%1,                Dena%Goffman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%0,                Hong%Wei%NULL%2,                Hong%Wei%NULL%0,                Zhihong%Zhang%NULL%1,                Jing%Chang%NULL%1,                Xiaopeng%Ma%NULL%1,                Xiang%Gao%NULL%1,                Qiang%Chen%qiangchen2015@sina.com%1,                Qiumei%Pang%pqm19650930@sina.com%2,                Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Mohammad%Khassawneh%xref no email%1,         Wasim%Khasawneh%xref no email%1,         Laila Al%Zaghal%xref no email%1,         Wail%Hayajneh%xref no email%1,         Fadel%Abdelal%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%0,                Yousef%Al Ahwel%NULL%1,                Anju%Suhag%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                Jing%Wang%NULL%0,                Wenbin%Li%NULL%1,                Zhaoxian%Zhou%NULL%1,                Siying%Liu%NULL%1,                Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Huaping%Zhu%xref no email%1,          Lin%Wang%xref no email%1,          Chengzhi%Fang%xref no email%1,          Sicong%Peng%xref no email%1,          Lianhong%Zhang%xref no email%1,          Guiping%Chang%xref no email%1,          Shiwen%Xia%xref no email%0,          Wenhao%Zhou%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,                 Zhiqiang%Zhou%NULL%0,                 Jianping%Zhang%NULL%0,                 Fengfeng%Zhu%NULL%0,                 Yongyan%Tang%NULL%0,                 Xinghua%Shen%luckydrx@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%0,                 Hua%Peng%NULL%1,                 Lin%Wang%NULL%2,                 Yin%Zhao%NULL%1,                 Lingkong%Zeng%NULL%1,                 Hui%Gao%NULL%1,                 Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Suliman%Khan%NULL%1,                 Liangyu%Peng%NULL%2,                 Liangyu%Peng%NULL%0,                 Rabeea%Siddique%NULL%1,                 Ghulam%Nabi%NULL%1,                 NULL%Nawsherwan%NULL%1,                 Mengzhou%Xue%NULL%1,                 Jianbo%Liu%NULL%1,                 Guang%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,                 Lefei%Han%NULL%1,                 Min%Peng%2658706528@qq.com%1,                 Yuxia%Lv%NULL%1,                 Yin%Ouyang%NULL%1,                 Kui%Liu%NULL%0,                 Linli%Yue%NULL%1,                 Qiannan%Li%NULL%1,                 Guoqiang%Sun%NULL%2,                 Lin%Chen%NULL%0,                 Lin%Yang%l.yang@polyu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Nan%Yu%NULL%1,                 Wei%Li%NULL%0,                 Qingling%Kang%NULL%1,                 Zhi%Xiong%NULL%1,                 Shaoshuai%Wang%NULL%1,                 Xingguang%Lin%NULL%1,                 Yanyan%Liu%NULL%1,                 Juan%Xiao%NULL%1,                 Haiyi%Liu%NULL%1,                 Dongrui%Deng%NULL%1,                 Suhua%Chen%NULL%1,                 Wanjiang%Zeng%NULL%1,                 Ling%Feng%NULL%1,                 Jianli%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lingkong%Zeng%xref no email%0,          Shiwen%Xia%xref no email%0,          Wenhao%Yuan%xref no email%0,          Kai%Yan%xref no email%0,          Feifan%Xiao%xref no email%0,          Jianbo%Shao%xref no email%0,          Wenhao%Zhou%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Nicoletta%Vendola%NULL%1,                 Viviana%stampini%NULL%2,                 Viviana%stampini%NULL%0,                 Roberta%Amadori%NULL%2,                 Roberta%Amadori%NULL%0,                 Martina%Gerbino%NULL%2,                 Martina%Gerbino%NULL%0,                 Annalisa%Curatolo%NULL%2,                 Annalisa%Curatolo%NULL%0,                 Daniela%surico%NULL%2,                 Daniela%surico%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lan%Dong%xref no email%0,          Jinhua%Tian%xref no email%0,          Songming%He%xref no email%0,          Chuchao%Zhu%xref no email%0,          Jian%Wang%xref no email%0,          Chen%Liu%xref no email%0,          Jing%Yang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Siyu%Chen%NULL%1,                 E.%Liao%NULL%2,                 E.%Liao%NULL%0,                 Dongmei%Cao%NULL%1,                 Ying%Gao%NULL%1,                 Guoqiang%Sun%sun821ch@126.com%0,                 Yong%Shao%cqshaoyong@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Baud%D.%coreGivesNoEmail%1,                Dubruc%E.%coreGivesNoEmail%1,                Favre%G.%coreGivesNoEmail%1,                Gengler%C.%coreGivesNoEmail%1,                Greub%G.%coreGivesNoEmail%1,                Jaton%K.%coreGivesNoEmail%1,                Pomar%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[AZAP%ALPAY%coreGivesNoEmail%0,                Kalafat%Erkan%coreGivesNoEmail%1,                KO\u00c7%ASLI%coreGivesNoEmail%1,                Ozisik%S.%coreGivesNoEmail%1,                UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%1,                VARLI%BULUT%coreGivesNoEmail%1,                Yaprak%E.%coreGivesNoEmail%1,                \u00c7INAR%G\u00dcLE%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%0,                 Jianhui%Wang%NULL%1,                 Yunbo%Mo%NULL%1,                 Wei%Duan%NULL%0,                 Guangjun%Xiang%NULL%1,                 Ming%Yi%NULL%1,                 Lei%Bao%NULL%1,                 Yuan%Shi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,                 Caitlin%Baptiste%NULL%1,                 Cynthia%Gyamfi-Bannerman%NULL%1,                 Russell%Miller%NULL%1,                 Rebecca%Martinez%NULL%1,                 Kyra%Bernstein%NULL%1,                 Laurence%Ring%NULL%1,                 Ruth%Landau%NULL%1,                 Stephanie%Purisch%NULL%1,                 Alexander M.%Friedman%NULL%1,                 Karin%Fuchs%NULL%1,                 Desmond%Sutton%NULL%1,                 Maria%Andrikopoulou%NULL%1,                 Devon%Rupley%NULL%1,                 Jean-Ju%Sheen%NULL%1,                 Janice%Aubey%NULL%1,                 Noelia%Zork%NULL%1,                 Leslie%Moroz%NULL%1,                 Mirella%Mourad%NULL%1,                 Ronald%Wapner%NULL%1,                 Lynn L.%Simpson%NULL%1,                 Mary E.%D’Alton%NULL%1,                 Dena%Goffman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%0,                 Hong%Wei%NULL%2,                 Hong%Wei%NULL%0,                 Zhihong%Zhang%NULL%1,                 Jing%Chang%NULL%1,                 Xiaopeng%Ma%NULL%1,                 Xiang%Gao%NULL%1,                 Qiang%Chen%qiangchen2015@sina.com%1,                 Qiumei%Pang%pqm19650930@sina.com%2,                 Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Mohammad%Khassawneh%xref no email%1,          Wasim%Khasawneh%xref no email%1,          Laila Al%Zaghal%xref no email%1,          Wail%Hayajneh%xref no email%1,          Fadel%Abdelal%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%0,                 Yousef%Al Ahwel%NULL%1,                 Anju%Suhag%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                 Jing%Wang%NULL%0,                 Wenbin%Li%NULL%1,                 Zhaoxian%Zhou%NULL%1,                 Siying%Liu%NULL%1,                 Zhihui%Rong%rongzhihui53@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1480,7 +1588,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1509,7 +1617,7 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -1538,7 +1646,7 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
@@ -1567,7 +1675,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1596,7 +1704,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="F6" t="s">
         <v>51</v>
@@ -1625,7 +1733,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1654,7 +1762,7 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1683,7 +1791,7 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1712,7 +1820,7 @@
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1741,7 +1849,7 @@
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="F11" t="s">
         <v>62</v>
@@ -1770,7 +1878,7 @@
         <v>96</v>
       </c>
       <c r="E12" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1799,7 +1907,7 @@
         <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -1828,7 +1936,7 @@
         <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="F14" t="s">
         <v>67</v>
@@ -1857,7 +1965,7 @@
         <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="F15" t="s">
         <v>72</v>
@@ -1886,7 +1994,7 @@
         <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="F16" t="s">
         <v>76</v>
@@ -1915,7 +2023,7 @@
         <v>204</v>
       </c>
       <c r="E17" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -1944,7 +2052,7 @@
         <v>79</v>
       </c>
       <c r="E18" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="F18" t="s">
         <v>81</v>
@@ -1973,7 +2081,7 @@
         <v>84</v>
       </c>
       <c r="E19" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="F19" t="s">
         <v>86</v>

--- a/Covid_19_Dataset_and_References/References/96.xlsx
+++ b/Covid_19_Dataset_and_References/References/96.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2377" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2510" uniqueCount="389">
   <si>
     <t>Doi</t>
   </si>
@@ -1225,6 +1225,60 @@
   </si>
   <si>
     <t>[Wei%Liu%NULL%0,                 Jing%Wang%NULL%0,                 Wenbin%Li%NULL%1,                 Zhaoxian%Zhou%NULL%1,                 Siying%Liu%NULL%1,                 Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Huaping%Zhu%xref no email%1,           Lin%Wang%xref no email%1,           Chengzhi%Fang%xref no email%1,           Sicong%Peng%xref no email%1,           Lianhong%Zhang%xref no email%1,           Guiping%Chang%xref no email%1,           Shiwen%Xia%xref no email%0,           Wenhao%Zhou%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,                  Zhiqiang%Zhou%NULL%0,                  Jianping%Zhang%NULL%0,                  Fengfeng%Zhu%NULL%0,                  Yongyan%Tang%NULL%0,                  Xinghua%Shen%luckydrx@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%0,                  Hua%Peng%NULL%1,                  Lin%Wang%NULL%2,                  Yin%Zhao%NULL%1,                  Lingkong%Zeng%NULL%1,                  Hui%Gao%NULL%1,                  Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Suliman%Khan%NULL%1,                  Liangyu%Peng%NULL%2,                  Liangyu%Peng%NULL%0,                  Rabeea%Siddique%NULL%1,                  Ghulam%Nabi%NULL%1,                  NULL%Nawsherwan%NULL%1,                  Mengzhou%Xue%NULL%1,                  Jianbo%Liu%NULL%1,                  Guang%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,                  Lefei%Han%NULL%1,                  Min%Peng%2658706528@qq.com%1,                  Yuxia%Lv%NULL%1,                  Yin%Ouyang%NULL%1,                  Kui%Liu%NULL%0,                  Linli%Yue%NULL%1,                  Qiannan%Li%NULL%1,                  Guoqiang%Sun%NULL%2,                  Lin%Chen%NULL%0,                  Lin%Yang%l.yang@polyu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Nan%Yu%NULL%1,                  Wei%Li%NULL%0,                  Qingling%Kang%NULL%1,                  Zhi%Xiong%NULL%1,                  Shaoshuai%Wang%NULL%1,                  Xingguang%Lin%NULL%1,                  Yanyan%Liu%NULL%1,                  Juan%Xiao%NULL%1,                  Haiyi%Liu%NULL%1,                  Dongrui%Deng%NULL%1,                  Suhua%Chen%NULL%1,                  Wanjiang%Zeng%NULL%1,                  Ling%Feng%NULL%1,                  Jianli%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lingkong%Zeng%xref no email%0,           Shiwen%Xia%xref no email%0,           Wenhao%Yuan%xref no email%0,           Kai%Yan%xref no email%0,           Feifan%Xiao%xref no email%0,           Jianbo%Shao%xref no email%0,           Wenhao%Zhou%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Nicoletta%Vendola%NULL%1,                  Viviana%stampini%NULL%2,                  Viviana%stampini%NULL%0,                  Roberta%Amadori%NULL%2,                  Roberta%Amadori%NULL%0,                  Martina%Gerbino%NULL%2,                  Martina%Gerbino%NULL%0,                  Annalisa%Curatolo%NULL%2,                  Annalisa%Curatolo%NULL%0,                  Daniela%surico%NULL%2,                  Daniela%surico%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lan%Dong%xref no email%0,           Jinhua%Tian%xref no email%0,           Songming%He%xref no email%0,           Chuchao%Zhu%xref no email%0,           Jian%Wang%xref no email%0,           Chen%Liu%xref no email%0,           Jing%Yang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Siyu%Chen%NULL%1,                  E.%Liao%NULL%2,                  E.%Liao%NULL%0,                  Dongmei%Cao%NULL%1,                  Ying%Gao%NULL%1,                  Guoqiang%Sun%sun821ch@126.com%0,                  Yong%Shao%cqshaoyong@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Baud%D.%coreGivesNoEmail%1,                 Dubruc%E.%coreGivesNoEmail%1,                 Favre%G.%coreGivesNoEmail%1,                 Gengler%C.%coreGivesNoEmail%1,                 Greub%G.%coreGivesNoEmail%1,                 Jaton%K.%coreGivesNoEmail%1,                 Pomar%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[AZAP%ALPAY%coreGivesNoEmail%0,                 Kalafat%Erkan%coreGivesNoEmail%1,                 KO\u00c7%ASLI%coreGivesNoEmail%1,                 Ozisik%S.%coreGivesNoEmail%1,                 UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%1,                 VARLI%BULUT%coreGivesNoEmail%1,                 Yaprak%E.%coreGivesNoEmail%1,                 \u00c7INAR%G\u00dcLE%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%0,                  Jianhui%Wang%NULL%1,                  Yunbo%Mo%NULL%1,                  Wei%Duan%NULL%0,                  Guangjun%Xiang%NULL%1,                  Ming%Yi%NULL%1,                  Lei%Bao%NULL%1,                  Yuan%Shi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,                  Caitlin%Baptiste%NULL%1,                  Cynthia%Gyamfi-Bannerman%NULL%1,                  Russell%Miller%NULL%1,                  Rebecca%Martinez%NULL%1,                  Kyra%Bernstein%NULL%1,                  Laurence%Ring%NULL%1,                  Ruth%Landau%NULL%1,                  Stephanie%Purisch%NULL%1,                  Alexander M.%Friedman%NULL%1,                  Karin%Fuchs%NULL%1,                  Desmond%Sutton%NULL%1,                  Maria%Andrikopoulou%NULL%1,                  Devon%Rupley%NULL%1,                  Jean-Ju%Sheen%NULL%1,                  Janice%Aubey%NULL%1,                  Noelia%Zork%NULL%1,                  Leslie%Moroz%NULL%1,                  Mirella%Mourad%NULL%1,                  Ronald%Wapner%NULL%1,                  Lynn L.%Simpson%NULL%1,                  Mary E.%D’Alton%NULL%1,                  Dena%Goffman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%0,                  Hong%Wei%NULL%2,                  Hong%Wei%NULL%0,                  Zhihong%Zhang%NULL%1,                  Jing%Chang%NULL%1,                  Xiaopeng%Ma%NULL%1,                  Xiang%Gao%NULL%1,                  Qiang%Chen%qiangchen2015@sina.com%1,                  Qiumei%Pang%pqm19650930@sina.com%2,                  Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Mohammad%Khassawneh%xref no email%1,           Wasim%Khasawneh%xref no email%1,           Laila Al%Zaghal%xref no email%1,           Wail%Hayajneh%xref no email%1,           Fadel%Abdelal%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%0,                  Yousef%Al Ahwel%NULL%1,                  Anju%Suhag%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                  Jing%Wang%NULL%0,                  Wenbin%Li%NULL%1,                  Zhaoxian%Zhou%NULL%1,                  Siying%Liu%NULL%1,                  Zhihui%Rong%rongzhihui53@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1588,7 +1642,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1617,7 +1671,7 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -1646,7 +1700,7 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
@@ -1675,7 +1729,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1704,7 +1758,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="F6" t="s">
         <v>51</v>
@@ -1733,7 +1787,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1762,7 +1816,7 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1791,7 +1845,7 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1820,7 +1874,7 @@
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1849,7 +1903,7 @@
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="F11" t="s">
         <v>62</v>
@@ -1878,7 +1932,7 @@
         <v>96</v>
       </c>
       <c r="E12" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1907,7 +1961,7 @@
         <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -1936,7 +1990,7 @@
         <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="F14" t="s">
         <v>67</v>
@@ -1965,7 +2019,7 @@
         <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="F15" t="s">
         <v>72</v>
@@ -1994,7 +2048,7 @@
         <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="F16" t="s">
         <v>76</v>
@@ -2023,7 +2077,7 @@
         <v>204</v>
       </c>
       <c r="E17" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -2052,7 +2106,7 @@
         <v>79</v>
       </c>
       <c r="E18" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="F18" t="s">
         <v>81</v>
@@ -2081,7 +2135,7 @@
         <v>84</v>
       </c>
       <c r="E19" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="F19" t="s">
         <v>86</v>

--- a/Covid_19_Dataset_and_References/References/96.xlsx
+++ b/Covid_19_Dataset_and_References/References/96.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2510" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2643" uniqueCount="411">
   <si>
     <t>Doi</t>
   </si>
@@ -1279,6 +1279,72 @@
   </si>
   <si>
     <t>[Wei%Liu%NULL%0,                  Jing%Wang%NULL%0,                  Wenbin%Li%NULL%1,                  Zhaoxian%Zhou%NULL%1,                  Siying%Liu%NULL%1,                  Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Huaping%Zhu%xref no email%1,            Lin%Wang%xref no email%1,            Chengzhi%Fang%xref no email%1,            Sicong%Peng%xref no email%1,            Lianhong%Zhang%xref no email%1,            Guiping%Chang%xref no email%1,            Shiwen%Xia%xref no email%0,            Wenhao%Zhou%xref no email%0]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,                   Zhiqiang%Zhou%NULL%0,                   Jianping%Zhang%NULL%0,                   Fengfeng%Zhu%NULL%0,                   Yongyan%Tang%NULL%0,                   Xinghua%Shen%luckydrx@163.com%0]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%0,                   Hua%Peng%NULL%1,                   Lin%Wang%NULL%2,                   Yin%Zhao%NULL%1,                   Lingkong%Zeng%NULL%1,                   Hui%Gao%NULL%1,                   Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Suliman%Khan%NULL%1,                   Liangyu%Peng%NULL%2,                   Liangyu%Peng%NULL%0,                   Rabeea%Siddique%NULL%1,                   Ghulam%Nabi%NULL%1,                   NULL%Nawsherwan%NULL%1,                   Mengzhou%Xue%NULL%1,                   Jianbo%Liu%NULL%1,                   Guang%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,                   Lefei%Han%NULL%1,                   Min%Peng%2658706528@qq.com%1,                   Yuxia%Lv%NULL%1,                   Yin%Ouyang%NULL%1,                   Kui%Liu%NULL%0,                   Linli%Yue%NULL%1,                   Qiannan%Li%NULL%1,                   Guoqiang%Sun%NULL%2,                   Lin%Chen%NULL%0,                   Lin%Yang%l.yang@polyu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Nan%Yu%NULL%1,                   Wei%Li%NULL%0,                   Qingling%Kang%NULL%1,                   Zhi%Xiong%NULL%1,                   Shaoshuai%Wang%NULL%1,                   Xingguang%Lin%NULL%1,                   Yanyan%Liu%NULL%1,                   Juan%Xiao%NULL%1,                   Haiyi%Liu%NULL%1,                   Dongrui%Deng%NULL%1,                   Suhua%Chen%NULL%1,                   Wanjiang%Zeng%NULL%1,                   Ling%Feng%NULL%1,                   Jianli%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Lingkong%Zeng%xref no email%0,            Shiwen%Xia%xref no email%0,            Wenhao%Yuan%xref no email%0,            Kai%Yan%xref no email%0,            Feifan%Xiao%xref no email%0,            Jianbo%Shao%xref no email%0,            Wenhao%Zhou%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Nicoletta%Vendola%NULL%1,                   Viviana%stampini%NULL%2,                   Viviana%stampini%NULL%0,                   Roberta%Amadori%NULL%2,                   Roberta%Amadori%NULL%0,                   Martina%Gerbino%NULL%2,                   Martina%Gerbino%NULL%0,                   Annalisa%Curatolo%NULL%2,                   Annalisa%Curatolo%NULL%0,                   Daniela%surico%NULL%2,                   Daniela%surico%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lan%Dong%xref no email%0,            Jinhua%Tian%xref no email%0,            Songming%He%xref no email%0,            Chuchao%Zhu%xref no email%0,            Jian%Wang%xref no email%0,            Chen%Liu%xref no email%0,            Jing%Yang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Siyu%Chen%NULL%1,                   E.%Liao%NULL%2,                   E.%Liao%NULL%0,                   Dongmei%Cao%NULL%1,                   Ying%Gao%NULL%1,                   Guoqiang%Sun%sun821ch@126.com%0,                   Yong%Shao%cqshaoyong@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Baud%D.%coreGivesNoEmail%1,                  Dubruc%E.%coreGivesNoEmail%1,                  Favre%G.%coreGivesNoEmail%1,                  Gengler%C.%coreGivesNoEmail%1,                  Greub%G.%coreGivesNoEmail%1,                  Jaton%K.%coreGivesNoEmail%1,                  Pomar%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[AZAP%ALPAY%coreGivesNoEmail%0,                  Kalafat%Erkan%coreGivesNoEmail%1,                  KO\u00c7%ASLI%coreGivesNoEmail%1,                  Ozisik%S.%coreGivesNoEmail%1,                  UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%1,                  VARLI%BULUT%coreGivesNoEmail%1,                  Yaprak%E.%coreGivesNoEmail%1,                  \u00c7INAR%G\u00dcLE%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%0,                   Jianhui%Wang%NULL%1,                   Yunbo%Mo%NULL%1,                   Wei%Duan%NULL%0,                   Guangjun%Xiang%NULL%1,                   Ming%Yi%NULL%1,                   Lei%Bao%NULL%1,                   Yuan%Shi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,                   Caitlin%Baptiste%NULL%1,                   Cynthia%Gyamfi-Bannerman%NULL%1,                   Russell%Miller%NULL%1,                   Rebecca%Martinez%NULL%1,                   Kyra%Bernstein%NULL%1,                   Laurence%Ring%NULL%1,                   Ruth%Landau%NULL%1,                   Stephanie%Purisch%NULL%1,                   Alexander M.%Friedman%NULL%1,                   Karin%Fuchs%NULL%1,                   Desmond%Sutton%NULL%1,                   Maria%Andrikopoulou%NULL%1,                   Devon%Rupley%NULL%1,                   Jean-Ju%Sheen%NULL%1,                   Janice%Aubey%NULL%1,                   Noelia%Zork%NULL%1,                   Leslie%Moroz%NULL%1,                   Mirella%Mourad%NULL%1,                   Ronald%Wapner%NULL%1,                   Lynn L.%Simpson%NULL%1,                   Mary E.%D’Alton%NULL%1,                   Dena%Goffman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%0,                   Hong%Wei%NULL%2,                   Hong%Wei%NULL%0,                   Zhihong%Zhang%NULL%1,                   Jing%Chang%NULL%1,                   Xiaopeng%Ma%NULL%1,                   Xiang%Gao%NULL%1,                   Qiang%Chen%qiangchen2015@sina.com%1,                   Qiumei%Pang%pqm19650930@sina.com%2,                   Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Mohammad%Khassawneh%xref no email%1,            Wasim%Khasawneh%xref no email%1,            Laila Al%Zaghal%xref no email%1,            Wail%Hayajneh%xref no email%1,            Fadel%Abdelal%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%0,                   Yousef%Al Ahwel%NULL%1,                   Anju%Suhag%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                   Jing%Wang%NULL%0,                   Wenbin%Li%NULL%1,                   Zhaoxian%Zhou%NULL%1,                   Siying%Liu%NULL%1,                   Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
   </si>
 </sst>
 </file>
@@ -1642,7 +1708,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1654,7 +1720,7 @@
         <v>184</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3">
@@ -1671,7 +1737,7 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -1683,7 +1749,7 @@
         <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>123</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4">
@@ -1700,7 +1766,7 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
@@ -1712,7 +1778,7 @@
         <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>123</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5">
@@ -1729,7 +1795,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1741,7 +1807,7 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>123</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6">
@@ -1758,7 +1824,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="F6" t="s">
         <v>51</v>
@@ -1770,7 +1836,7 @@
         <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>123</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7">
@@ -1787,7 +1853,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1799,7 +1865,7 @@
         <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>128</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8">
@@ -1816,7 +1882,7 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>377</v>
+        <v>398</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1828,7 +1894,7 @@
         <v>192</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>390</v>
       </c>
     </row>
     <row r="9">
@@ -1845,7 +1911,7 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1857,7 +1923,7 @@
         <v>32</v>
       </c>
       <c r="I9" t="s">
-        <v>128</v>
+        <v>397</v>
       </c>
     </row>
     <row r="10">
@@ -1874,7 +1940,7 @@
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1886,7 +1952,7 @@
         <v>196</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>390</v>
       </c>
     </row>
     <row r="11">
@@ -1903,7 +1969,7 @@
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>380</v>
+        <v>401</v>
       </c>
       <c r="F11" t="s">
         <v>62</v>
@@ -1915,7 +1981,7 @@
         <v>63</v>
       </c>
       <c r="I11" t="s">
-        <v>123</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12">
@@ -1932,7 +1998,7 @@
         <v>96</v>
       </c>
       <c r="E12" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1944,7 +2010,7 @@
         <v>32</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>390</v>
       </c>
     </row>
     <row r="13">
@@ -1961,7 +2027,7 @@
         <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -1973,7 +2039,7 @@
         <v>32</v>
       </c>
       <c r="I13" t="s">
-        <v>44</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14">
@@ -1990,7 +2056,7 @@
         <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
       <c r="F14" t="s">
         <v>67</v>
@@ -2002,7 +2068,7 @@
         <v>68</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15">
@@ -2019,7 +2085,7 @@
         <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>384</v>
+        <v>405</v>
       </c>
       <c r="F15" t="s">
         <v>72</v>
@@ -2031,7 +2097,7 @@
         <v>32</v>
       </c>
       <c r="I15" t="s">
-        <v>128</v>
+        <v>397</v>
       </c>
     </row>
     <row r="16">
@@ -2048,7 +2114,7 @@
         <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="F16" t="s">
         <v>76</v>
@@ -2060,7 +2126,7 @@
         <v>77</v>
       </c>
       <c r="I16" t="s">
-        <v>123</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17">
@@ -2077,7 +2143,7 @@
         <v>204</v>
       </c>
       <c r="E17" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -2089,7 +2155,7 @@
         <v>206</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>390</v>
       </c>
     </row>
     <row r="18">
@@ -2106,7 +2172,7 @@
         <v>79</v>
       </c>
       <c r="E18" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="F18" t="s">
         <v>81</v>
@@ -2118,7 +2184,7 @@
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>128</v>
+        <v>397</v>
       </c>
     </row>
     <row r="19">
@@ -2135,7 +2201,7 @@
         <v>84</v>
       </c>
       <c r="E19" t="s">
-        <v>388</v>
+        <v>409</v>
       </c>
       <c r="F19" t="s">
         <v>86</v>
@@ -2147,7 +2213,7 @@
         <v>87</v>
       </c>
       <c r="I19" t="s">
-        <v>138</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/96.xlsx
+++ b/Covid_19_Dataset_and_References/References/96.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2643" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2776" uniqueCount="429">
   <si>
     <t>Doi</t>
   </si>
@@ -1345,6 +1345,60 @@
   </si>
   <si>
     <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Huaping%Zhu%xref no email%1,             Lin%Wang%xref no email%1,             Chengzhi%Fang%xref no email%1,             Sicong%Peng%xref no email%1,             Lianhong%Zhang%xref no email%1,             Guiping%Chang%xref no email%1,             Shiwen%Xia%xref no email%0,             Wenhao%Zhou%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,                    Zhiqiang%Zhou%NULL%0,                    Jianping%Zhang%NULL%0,                    Fengfeng%Zhu%NULL%0,                    Yongyan%Tang%NULL%0,                    Xinghua%Shen%luckydrx@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%0,                    Hua%Peng%NULL%1,                    Lin%Wang%NULL%2,                    Yin%Zhao%NULL%1,                    Lingkong%Zeng%NULL%1,                    Hui%Gao%NULL%1,                    Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Suliman%Khan%NULL%1,                    Liangyu%Peng%NULL%2,                    Liangyu%Peng%NULL%0,                    Rabeea%Siddique%NULL%1,                    Ghulam%Nabi%NULL%1,                    NULL%Nawsherwan%NULL%1,                    Mengzhou%Xue%NULL%1,                    Jianbo%Liu%NULL%1,                    Guang%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,                    Lefei%Han%NULL%1,                    Min%Peng%2658706528@qq.com%1,                    Yuxia%Lv%NULL%1,                    Yin%Ouyang%NULL%1,                    Kui%Liu%NULL%0,                    Linli%Yue%NULL%1,                    Qiannan%Li%NULL%1,                    Guoqiang%Sun%NULL%2,                    Lin%Chen%NULL%0,                    Lin%Yang%l.yang@polyu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Nan%Yu%NULL%1,                    Wei%Li%NULL%0,                    Qingling%Kang%NULL%1,                    Zhi%Xiong%NULL%1,                    Shaoshuai%Wang%NULL%1,                    Xingguang%Lin%NULL%1,                    Yanyan%Liu%NULL%1,                    Juan%Xiao%NULL%1,                    Haiyi%Liu%NULL%1,                    Dongrui%Deng%NULL%1,                    Suhua%Chen%NULL%1,                    Wanjiang%Zeng%NULL%1,                    Ling%Feng%NULL%1,                    Jianli%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lingkong%Zeng%xref no email%0,             Shiwen%Xia%xref no email%0,             Wenhao%Yuan%xref no email%0,             Kai%Yan%xref no email%0,             Feifan%Xiao%xref no email%0,             Jianbo%Shao%xref no email%0,             Wenhao%Zhou%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Nicoletta%Vendola%NULL%1,                    Viviana%stampini%NULL%2,                    Viviana%stampini%NULL%0,                    Roberta%Amadori%NULL%2,                    Roberta%Amadori%NULL%0,                    Martina%Gerbino%NULL%2,                    Martina%Gerbino%NULL%0,                    Annalisa%Curatolo%NULL%2,                    Annalisa%Curatolo%NULL%0,                    Daniela%surico%NULL%2,                    Daniela%surico%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lan%Dong%xref no email%0,             Jinhua%Tian%xref no email%0,             Songming%He%xref no email%0,             Chuchao%Zhu%xref no email%0,             Jian%Wang%xref no email%0,             Chen%Liu%xref no email%0,             Jing%Yang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Siyu%Chen%NULL%1,                    E.%Liao%NULL%2,                    E.%Liao%NULL%0,                    Dongmei%Cao%NULL%1,                    Ying%Gao%NULL%1,                    Guoqiang%Sun%sun821ch@126.com%0,                    Yong%Shao%cqshaoyong@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Baud%D.%coreGivesNoEmail%1,                   Dubruc%E.%coreGivesNoEmail%1,                   Favre%G.%coreGivesNoEmail%1,                   Gengler%C.%coreGivesNoEmail%1,                   Greub%G.%coreGivesNoEmail%1,                   Jaton%K.%coreGivesNoEmail%1,                   Pomar%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[AZAP%ALPAY%coreGivesNoEmail%0,                   Kalafat%Erkan%coreGivesNoEmail%1,                   KO\u00c7%ASLI%coreGivesNoEmail%1,                   Ozisik%S.%coreGivesNoEmail%1,                   UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%1,                   VARLI%BULUT%coreGivesNoEmail%1,                   Yaprak%E.%coreGivesNoEmail%1,                   \u00c7INAR%G\u00dcLE%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%0,                    Jianhui%Wang%NULL%1,                    Yunbo%Mo%NULL%1,                    Wei%Duan%NULL%0,                    Guangjun%Xiang%NULL%1,                    Ming%Yi%NULL%1,                    Lei%Bao%NULL%1,                    Yuan%Shi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,                    Caitlin%Baptiste%NULL%1,                    Cynthia%Gyamfi-Bannerman%NULL%1,                    Russell%Miller%NULL%1,                    Rebecca%Martinez%NULL%1,                    Kyra%Bernstein%NULL%1,                    Laurence%Ring%NULL%1,                    Ruth%Landau%NULL%1,                    Stephanie%Purisch%NULL%1,                    Alexander M.%Friedman%NULL%1,                    Karin%Fuchs%NULL%1,                    Desmond%Sutton%NULL%1,                    Maria%Andrikopoulou%NULL%1,                    Devon%Rupley%NULL%1,                    Jean-Ju%Sheen%NULL%1,                    Janice%Aubey%NULL%1,                    Noelia%Zork%NULL%1,                    Leslie%Moroz%NULL%1,                    Mirella%Mourad%NULL%1,                    Ronald%Wapner%NULL%1,                    Lynn L.%Simpson%NULL%1,                    Mary E.%D’Alton%NULL%1,                    Dena%Goffman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%0,                    Hong%Wei%NULL%2,                    Hong%Wei%NULL%0,                    Zhihong%Zhang%NULL%1,                    Jing%Chang%NULL%1,                    Xiaopeng%Ma%NULL%1,                    Xiang%Gao%NULL%1,                    Qiang%Chen%qiangchen2015@sina.com%1,                    Qiumei%Pang%pqm19650930@sina.com%2,                    Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Mohammad%Khassawneh%xref no email%1,             Wasim%Khasawneh%xref no email%1,             Laila Al%Zaghal%xref no email%1,             Wail%Hayajneh%xref no email%1,             Fadel%Abdelal%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%0,                    Yousef%Al Ahwel%NULL%1,                    Anju%Suhag%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                    Jing%Wang%NULL%0,                    Wenbin%Li%NULL%1,                    Zhaoxian%Zhou%NULL%1,                    Siying%Liu%NULL%1,                    Zhihui%Rong%rongzhihui53@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1708,7 +1762,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1737,7 +1791,7 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -1766,7 +1820,7 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
@@ -1795,7 +1849,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1824,7 +1878,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="F6" t="s">
         <v>51</v>
@@ -1853,7 +1907,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1882,7 +1936,7 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1911,7 +1965,7 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1940,7 +1994,7 @@
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1969,7 +2023,7 @@
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="F11" t="s">
         <v>62</v>
@@ -1998,7 +2052,7 @@
         <v>96</v>
       </c>
       <c r="E12" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -2027,7 +2081,7 @@
         <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -2056,7 +2110,7 @@
         <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="F14" t="s">
         <v>67</v>
@@ -2085,7 +2139,7 @@
         <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="F15" t="s">
         <v>72</v>
@@ -2114,7 +2168,7 @@
         <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="F16" t="s">
         <v>76</v>
@@ -2143,7 +2197,7 @@
         <v>204</v>
       </c>
       <c r="E17" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -2172,7 +2226,7 @@
         <v>79</v>
       </c>
       <c r="E18" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="F18" t="s">
         <v>81</v>
@@ -2201,7 +2255,7 @@
         <v>84</v>
       </c>
       <c r="E19" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="F19" t="s">
         <v>86</v>

--- a/Covid_19_Dataset_and_References/References/96.xlsx
+++ b/Covid_19_Dataset_and_References/References/96.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2776" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3536" uniqueCount="507">
   <si>
     <t>Doi</t>
   </si>
@@ -1399,6 +1399,240 @@
   </si>
   <si>
     <t>[Wei%Liu%NULL%0,                    Jing%Wang%NULL%0,                    Wenbin%Li%NULL%1,                    Zhaoxian%Zhou%NULL%1,                    Siying%Liu%NULL%1,                    Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Huaping%Zhu%xref no email%0, Lin%Wang%xref no email%1, Chengzhi%Fang%xref no email%1, Sicong%Peng%xref no email%1, Lianhong%Zhang%xref no email%1, Guiping%Chang%xref no email%1, Shiwen%Xia%xref no email%0, Wenhao%Zhou%xref no email%0]</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>PUBLISHER: AME Publishing Company</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,                     Zhiqiang%Zhou%NULL%0,                     Jianping%Zhang%NULL%0,                     Fengfeng%Zhu%NULL%0,                     Yongyan%Tang%NULL%0,                     Xinghua%Shen%luckydrx@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%0,                     Hua%Peng%NULL%1,                     Lin%Wang%NULL%2,                     Yin%Zhao%NULL%1,                     Lingkong%Zeng%NULL%1,                     Hui%Gao%NULL%1,                     Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Suliman%Khan%NULL%1,                     Liangyu%Peng%NULL%2,                     Liangyu%Peng%NULL%0,                     Rabeea%Siddique%NULL%1,                     Ghulam%Nabi%NULL%1,                     NULL%Nawsherwan%NULL%1,                     Mengzhou%Xue%NULL%1,                     Jianbo%Liu%NULL%1,                     Guang%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,                     Lefei%Han%NULL%1,                     Min%Peng%2658706528@qq.com%1,                     Yuxia%Lv%NULL%1,                     Yin%Ouyang%NULL%1,                     Kui%Liu%NULL%0,                     Linli%Yue%NULL%1,                     Qiannan%Li%NULL%1,                     Guoqiang%Sun%NULL%2,                     Lin%Chen%NULL%0,                     Lin%Yang%l.yang@polyu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Nan%Yu%NULL%1,                     Wei%Li%NULL%0,                     Qingling%Kang%NULL%1,                     Zhi%Xiong%NULL%1,                     Shaoshuai%Wang%NULL%1,                     Xingguang%Lin%NULL%1,                     Yanyan%Liu%NULL%1,                     Juan%Xiao%NULL%1,                     Haiyi%Liu%NULL%1,                     Dongrui%Deng%NULL%1,                     Suhua%Chen%NULL%1,                     Wanjiang%Zeng%NULL%1,                     Ling%Feng%NULL%1,                     Jianli%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Medical Association (AMA)</t>
+  </si>
+  <si>
+    <t>[Nicoletta%Vendola%NULL%1,                     Viviana%stampini%NULL%2,                     Viviana%stampini%NULL%0,                     Roberta%Amadori%NULL%2,                     Roberta%Amadori%NULL%0,                     Martina%Gerbino%NULL%2,                     Martina%Gerbino%NULL%0,                     Annalisa%Curatolo%NULL%2,                     Annalisa%Curatolo%NULL%0,                     Daniela%surico%NULL%2,                     Daniela%surico%NULL%0]</t>
+  </si>
+  <si>
+    <t>2023-05-27</t>
+  </si>
+  <si>
+    <t>[Siyu%Chen%NULL%1,                     E.%Liao%NULL%2,                     E.%Liao%NULL%0,                     Dongmei%Cao%NULL%1,                     Ying%Gao%NULL%1,                     Guoqiang%Sun%sun821ch@126.com%0,                     Yong%Shao%cqshaoyong@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Baud%D.%coreGivesNoEmail%1,                    Dubruc%E.%coreGivesNoEmail%1,                    Favre%G.%coreGivesNoEmail%1,                    Gengler%C.%coreGivesNoEmail%1,                    Greub%G.%coreGivesNoEmail%1,                    Jaton%K.%coreGivesNoEmail%1,                    Pomar%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[AZAP%ALPAY%coreGivesNoEmail%0,                    Kalafat%Erkan%coreGivesNoEmail%1,                    KO\u00c7%ASLI%coreGivesNoEmail%1,                    Ozisik%S.%coreGivesNoEmail%1,                    UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%1,                    VARLI%BULUT%coreGivesNoEmail%1,                    Yaprak%E.%coreGivesNoEmail%1,                    \u00c7INAR%G\u00dcLE%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%0,                     Jianhui%Wang%NULL%1,                     Yunbo%Mo%NULL%1,                     Wei%Duan%NULL%0,                     Guangjun%Xiang%NULL%1,                     Ming%Yi%NULL%1,                     Lei%Bao%NULL%1,                     Yuan%Shi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,                     Caitlin%Baptiste%NULL%1,                     Cynthia%Gyamfi-Bannerman%NULL%1,                     Russell%Miller%NULL%1,                     Rebecca%Martinez%NULL%1,                     Kyra%Bernstein%NULL%1,                     Laurence%Ring%NULL%1,                     Ruth%Landau%NULL%1,                     Stephanie%Purisch%NULL%1,                     Alexander M.%Friedman%NULL%1,                     Karin%Fuchs%NULL%1,                     Desmond%Sutton%NULL%1,                     Maria%Andrikopoulou%NULL%1,                     Devon%Rupley%NULL%1,                     Jean-Ju%Sheen%NULL%1,                     Janice%Aubey%NULL%1,                     Noelia%Zork%NULL%1,                     Leslie%Moroz%NULL%1,                     Mirella%Mourad%NULL%1,                     Ronald%Wapner%NULL%1,                     Lynn L.%Simpson%NULL%1,                     Mary E.%D’Alton%NULL%1,                     Dena%Goffman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%0,                     Hong%Wei%NULL%2,                     Hong%Wei%NULL%0,                     Zhihong%Zhang%NULL%1,                     Jing%Chang%NULL%1,                     Xiaopeng%Ma%NULL%1,                     Xiang%Gao%NULL%1,                     Qiang%Chen%qiangchen2015@sina.com%1,                     Qiumei%Pang%pqm19650930@sina.com%2,                     Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Mohammad%Khassawneh%xref no email%0, Wasim%Khasawneh%xref no email%1, Laila Al%Zaghal%xref no email%1, Wail%Hayajneh%xref no email%1, Fadel%Abdelal%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Research Square Platform LLC</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%0,                     Yousef%Al Ahwel%NULL%1,                     Anju%Suhag%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                     Jing%Wang%NULL%0,                     Wenbin%Li%NULL%1,                     Zhaoxian%Zhou%NULL%1,                     Siying%Liu%NULL%1,                     Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,                      Zhiqiang%Zhou%NULL%0,                      Jianping%Zhang%NULL%0,                      Fengfeng%Zhu%NULL%0,                      Yongyan%Tang%NULL%0,                      Xinghua%Shen%luckydrx@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%0,                      Hua%Peng%NULL%1,                      Lin%Wang%NULL%2,                      Yin%Zhao%NULL%1,                      Lingkong%Zeng%NULL%1,                      Hui%Gao%NULL%1,                      Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Suliman%Khan%NULL%1,                      Liangyu%Peng%NULL%2,                      Liangyu%Peng%NULL%0,                      Rabeea%Siddique%NULL%1,                      Ghulam%Nabi%NULL%1,                      NULL%Nawsherwan%NULL%1,                      Mengzhou%Xue%NULL%1,                      Jianbo%Liu%NULL%1,                      Guang%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,                      Lefei%Han%NULL%1,                      Min%Peng%2658706528@qq.com%1,                      Yuxia%Lv%NULL%1,                      Yin%Ouyang%NULL%1,                      Kui%Liu%NULL%0,                      Linli%Yue%NULL%1,                      Qiannan%Li%NULL%1,                      Guoqiang%Sun%NULL%2,                      Lin%Chen%NULL%0,                      Lin%Yang%l.yang@polyu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Nan%Yu%NULL%1,                      Wei%Li%NULL%0,                      Qingling%Kang%NULL%1,                      Zhi%Xiong%NULL%1,                      Shaoshuai%Wang%NULL%1,                      Xingguang%Lin%NULL%1,                      Yanyan%Liu%NULL%1,                      Juan%Xiao%NULL%1,                      Haiyi%Liu%NULL%1,                      Dongrui%Deng%NULL%1,                      Suhua%Chen%NULL%1,                      Wanjiang%Zeng%NULL%1,                      Ling%Feng%NULL%1,                      Jianli%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nicoletta%Vendola%NULL%1,                      Viviana%stampini%NULL%2,                      Viviana%stampini%NULL%0,                      Roberta%Amadori%NULL%2,                      Roberta%Amadori%NULL%0,                      Martina%Gerbino%NULL%2,                      Martina%Gerbino%NULL%0,                      Annalisa%Curatolo%NULL%2,                      Annalisa%Curatolo%NULL%0,                      Daniela%surico%NULL%2,                      Daniela%surico%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Siyu%Chen%NULL%1,                      E.%Liao%NULL%2,                      E.%Liao%NULL%0,                      Dongmei%Cao%NULL%1,                      Ying%Gao%NULL%1,                      Guoqiang%Sun%sun821ch@126.com%0,                      Yong%Shao%cqshaoyong@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Baud%D.%coreGivesNoEmail%1,                     Dubruc%E.%coreGivesNoEmail%1,                     Favre%G.%coreGivesNoEmail%1,                     Gengler%C.%coreGivesNoEmail%1,                     Greub%G.%coreGivesNoEmail%1,                     Jaton%K.%coreGivesNoEmail%1,                     Pomar%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[AZAP%ALPAY%coreGivesNoEmail%0,                     Kalafat%Erkan%coreGivesNoEmail%1,                     KO\u00c7%ASLI%coreGivesNoEmail%1,                     Ozisik%S.%coreGivesNoEmail%1,                     UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%1,                     VARLI%BULUT%coreGivesNoEmail%1,                     Yaprak%E.%coreGivesNoEmail%1,                     \u00c7INAR%G\u00dcLE%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%0,                      Jianhui%Wang%NULL%1,                      Yunbo%Mo%NULL%1,                      Wei%Duan%NULL%0,                      Guangjun%Xiang%NULL%1,                      Ming%Yi%NULL%1,                      Lei%Bao%NULL%1,                      Yuan%Shi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,                      Caitlin%Baptiste%NULL%1,                      Cynthia%Gyamfi-Bannerman%NULL%1,                      Russell%Miller%NULL%1,                      Rebecca%Martinez%NULL%1,                      Kyra%Bernstein%NULL%1,                      Laurence%Ring%NULL%1,                      Ruth%Landau%NULL%1,                      Stephanie%Purisch%NULL%1,                      Alexander M.%Friedman%NULL%1,                      Karin%Fuchs%NULL%1,                      Desmond%Sutton%NULL%1,                      Maria%Andrikopoulou%NULL%1,                      Devon%Rupley%NULL%1,                      Jean-Ju%Sheen%NULL%1,                      Janice%Aubey%NULL%1,                      Noelia%Zork%NULL%1,                      Leslie%Moroz%NULL%1,                      Mirella%Mourad%NULL%1,                      Ronald%Wapner%NULL%1,                      Lynn L.%Simpson%NULL%1,                      Mary E.%D’Alton%NULL%1,                      Dena%Goffman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%0,                      Hong%Wei%NULL%2,                      Hong%Wei%NULL%0,                      Zhihong%Zhang%NULL%1,                      Jing%Chang%NULL%1,                      Xiaopeng%Ma%NULL%1,                      Xiang%Gao%NULL%1,                      Qiang%Chen%qiangchen2015@sina.com%1,                      Qiumei%Pang%pqm19650930@sina.com%2,                      Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%0,                      Yousef%Al Ahwel%NULL%1,                      Anju%Suhag%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                      Jing%Wang%NULL%0,                      Wenbin%Li%NULL%1,                      Zhaoxian%Zhou%NULL%1,                      Siying%Liu%NULL%1,                      Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,                       Zhiqiang%Zhou%NULL%0,                       Jianping%Zhang%NULL%0,                       Fengfeng%Zhu%NULL%0,                       Yongyan%Tang%NULL%0,                       Xinghua%Shen%luckydrx@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%0,                       Hua%Peng%NULL%1,                       Lin%Wang%NULL%2,                       Yin%Zhao%NULL%1,                       Lingkong%Zeng%NULL%1,                       Hui%Gao%NULL%1,                       Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Suliman%Khan%NULL%1,                       Liangyu%Peng%NULL%2,                       Liangyu%Peng%NULL%0,                       Rabeea%Siddique%NULL%1,                       Ghulam%Nabi%NULL%1,                       NULL%Nawsherwan%NULL%1,                       Mengzhou%Xue%NULL%1,                       Jianbo%Liu%NULL%1,                       Guang%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,                       Lefei%Han%NULL%1,                       Min%Peng%2658706528@qq.com%1,                       Yuxia%Lv%NULL%1,                       Yin%Ouyang%NULL%1,                       Kui%Liu%NULL%0,                       Linli%Yue%NULL%1,                       Qiannan%Li%NULL%1,                       Guoqiang%Sun%NULL%2,                       Lin%Chen%NULL%0,                       Lin%Yang%l.yang@polyu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Nan%Yu%NULL%1,                       Wei%Li%NULL%0,                       Qingling%Kang%NULL%1,                       Zhi%Xiong%NULL%1,                       Shaoshuai%Wang%NULL%1,                       Xingguang%Lin%NULL%1,                       Yanyan%Liu%NULL%1,                       Juan%Xiao%NULL%1,                       Haiyi%Liu%NULL%1,                       Dongrui%Deng%NULL%1,                       Suhua%Chen%NULL%1,                       Wanjiang%Zeng%NULL%1,                       Ling%Feng%NULL%1,                       Jianli%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nicoletta%Vendola%NULL%1,                       Viviana%stampini%NULL%2,                       Viviana%stampini%NULL%0,                       Roberta%Amadori%NULL%2,                       Roberta%Amadori%NULL%0,                       Martina%Gerbino%NULL%2,                       Martina%Gerbino%NULL%0,                       Annalisa%Curatolo%NULL%2,                       Annalisa%Curatolo%NULL%0,                       Daniela%surico%NULL%2,                       Daniela%surico%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Siyu%Chen%NULL%1,                       E.%Liao%NULL%2,                       E.%Liao%NULL%0,                       Dongmei%Cao%NULL%1,                       Ying%Gao%NULL%1,                       Guoqiang%Sun%sun821ch@126.com%0,                       Yong%Shao%cqshaoyong@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Baud%D.%coreGivesNoEmail%1,                      Dubruc%E.%coreGivesNoEmail%1,                      Favre%G.%coreGivesNoEmail%1,                      Gengler%C.%coreGivesNoEmail%1,                      Greub%G.%coreGivesNoEmail%1,                      Jaton%K.%coreGivesNoEmail%1,                      Pomar%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[AZAP%ALPAY%coreGivesNoEmail%0,                      Kalafat%Erkan%coreGivesNoEmail%1,                      KO\u00c7%ASLI%coreGivesNoEmail%1,                      Ozisik%S.%coreGivesNoEmail%1,                      UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%1,                      VARLI%BULUT%coreGivesNoEmail%1,                      Yaprak%E.%coreGivesNoEmail%1,                      \u00c7INAR%G\u00dcLE%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%0,                       Jianhui%Wang%NULL%1,                       Yunbo%Mo%NULL%1,                       Wei%Duan%NULL%0,                       Guangjun%Xiang%NULL%1,                       Ming%Yi%NULL%1,                       Lei%Bao%NULL%1,                       Yuan%Shi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,                       Caitlin%Baptiste%NULL%1,                       Cynthia%Gyamfi-Bannerman%NULL%1,                       Russell%Miller%NULL%1,                       Rebecca%Martinez%NULL%1,                       Kyra%Bernstein%NULL%1,                       Laurence%Ring%NULL%1,                       Ruth%Landau%NULL%1,                       Stephanie%Purisch%NULL%1,                       Alexander M.%Friedman%NULL%1,                       Karin%Fuchs%NULL%1,                       Desmond%Sutton%NULL%1,                       Maria%Andrikopoulou%NULL%1,                       Devon%Rupley%NULL%1,                       Jean-Ju%Sheen%NULL%1,                       Janice%Aubey%NULL%1,                       Noelia%Zork%NULL%1,                       Leslie%Moroz%NULL%1,                       Mirella%Mourad%NULL%1,                       Ronald%Wapner%NULL%1,                       Lynn L.%Simpson%NULL%1,                       Mary E.%D’Alton%NULL%1,                       Dena%Goffman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%0,                       Hong%Wei%NULL%2,                       Hong%Wei%NULL%0,                       Zhihong%Zhang%NULL%1,                       Jing%Chang%NULL%1,                       Xiaopeng%Ma%NULL%1,                       Xiang%Gao%NULL%1,                       Qiang%Chen%qiangchen2015@sina.com%1,                       Qiumei%Pang%pqm19650930@sina.com%2,                       Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%0,                       Yousef%Al Ahwel%NULL%1,                       Anju%Suhag%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                       Jing%Wang%NULL%0,                       Wenbin%Li%NULL%1,                       Zhaoxian%Zhou%NULL%1,                       Siying%Liu%NULL%1,                       Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,                        Zhiqiang%Zhou%NULL%0,                        Jianping%Zhang%NULL%0,                        Fengfeng%Zhu%NULL%0,                        Yongyan%Tang%NULL%0,                        Xinghua%Shen%luckydrx@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%0,                        Hua%Peng%NULL%1,                        Lin%Wang%NULL%2,                        Yin%Zhao%NULL%1,                        Lingkong%Zeng%NULL%1,                        Hui%Gao%NULL%1,                        Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Suliman%Khan%NULL%1,                        Liangyu%Peng%NULL%2,                        Liangyu%Peng%NULL%0,                        Rabeea%Siddique%NULL%1,                        Ghulam%Nabi%NULL%1,                        NULL%Nawsherwan%NULL%1,                        Mengzhou%Xue%NULL%1,                        Jianbo%Liu%NULL%1,                        Guang%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,                        Lefei%Han%NULL%1,                        Min%Peng%2658706528@qq.com%1,                        Yuxia%Lv%NULL%1,                        Yin%Ouyang%NULL%1,                        Kui%Liu%NULL%0,                        Linli%Yue%NULL%1,                        Qiannan%Li%NULL%1,                        Guoqiang%Sun%NULL%2,                        Lin%Chen%NULL%0,                        Lin%Yang%l.yang@polyu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Nan%Yu%NULL%1,                        Wei%Li%NULL%0,                        Qingling%Kang%NULL%1,                        Zhi%Xiong%NULL%1,                        Shaoshuai%Wang%NULL%1,                        Xingguang%Lin%NULL%1,                        Yanyan%Liu%NULL%1,                        Juan%Xiao%NULL%1,                        Haiyi%Liu%NULL%1,                        Dongrui%Deng%NULL%1,                        Suhua%Chen%NULL%1,                        Wanjiang%Zeng%NULL%1,                        Ling%Feng%NULL%1,                        Jianli%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nicoletta%Vendola%NULL%1,                        Viviana%stampini%NULL%2,                        Viviana%stampini%NULL%0,                        Roberta%Amadori%NULL%2,                        Roberta%Amadori%NULL%0,                        Martina%Gerbino%NULL%2,                        Martina%Gerbino%NULL%0,                        Annalisa%Curatolo%NULL%2,                        Annalisa%Curatolo%NULL%0,                        Daniela%surico%NULL%2,                        Daniela%surico%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Siyu%Chen%NULL%1,                        E.%Liao%NULL%2,                        E.%Liao%NULL%0,                        Dongmei%Cao%NULL%1,                        Ying%Gao%NULL%1,                        Guoqiang%Sun%sun821ch@126.com%0,                        Yong%Shao%cqshaoyong@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Baud%D.%coreGivesNoEmail%1,                       Dubruc%E.%coreGivesNoEmail%1,                       Favre%G.%coreGivesNoEmail%1,                       Gengler%C.%coreGivesNoEmail%1,                       Greub%G.%coreGivesNoEmail%1,                       Jaton%K.%coreGivesNoEmail%1,                       Pomar%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[AZAP%ALPAY%coreGivesNoEmail%0,                       Kalafat%Erkan%coreGivesNoEmail%1,                       KO\u00c7%ASLI%coreGivesNoEmail%1,                       Ozisik%S.%coreGivesNoEmail%1,                       UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%1,                       VARLI%BULUT%coreGivesNoEmail%1,                       Yaprak%E.%coreGivesNoEmail%1,                       \u00c7INAR%G\u00dcLE%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%0,                        Jianhui%Wang%NULL%1,                        Yunbo%Mo%NULL%1,                        Wei%Duan%NULL%0,                        Guangjun%Xiang%NULL%1,                        Ming%Yi%NULL%1,                        Lei%Bao%NULL%1,                        Yuan%Shi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,                        Caitlin%Baptiste%NULL%1,                        Cynthia%Gyamfi-Bannerman%NULL%1,                        Russell%Miller%NULL%1,                        Rebecca%Martinez%NULL%1,                        Kyra%Bernstein%NULL%1,                        Laurence%Ring%NULL%1,                        Ruth%Landau%NULL%1,                        Stephanie%Purisch%NULL%1,                        Alexander M.%Friedman%NULL%1,                        Karin%Fuchs%NULL%1,                        Desmond%Sutton%NULL%1,                        Maria%Andrikopoulou%NULL%1,                        Devon%Rupley%NULL%1,                        Jean-Ju%Sheen%NULL%1,                        Janice%Aubey%NULL%1,                        Noelia%Zork%NULL%1,                        Leslie%Moroz%NULL%1,                        Mirella%Mourad%NULL%1,                        Ronald%Wapner%NULL%1,                        Lynn L.%Simpson%NULL%1,                        Mary E.%D’Alton%NULL%1,                        Dena%Goffman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%0,                        Hong%Wei%NULL%2,                        Hong%Wei%NULL%0,                        Zhihong%Zhang%NULL%1,                        Jing%Chang%NULL%1,                        Xiaopeng%Ma%NULL%1,                        Xiang%Gao%NULL%1,                        Qiang%Chen%qiangchen2015@sina.com%1,                        Qiumei%Pang%pqm19650930@sina.com%2,                        Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%0,                        Yousef%Al Ahwel%NULL%1,                        Anju%Suhag%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                        Jing%Wang%NULL%0,                        Wenbin%Li%NULL%1,                        Zhaoxian%Zhou%NULL%1,                        Siying%Liu%NULL%1,                        Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,                         Zhiqiang%Zhou%NULL%0,                         Jianping%Zhang%NULL%0,                         Fengfeng%Zhu%NULL%0,                         Yongyan%Tang%NULL%0,                         Xinghua%Shen%luckydrx@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%0,                         Hua%Peng%NULL%1,                         Lin%Wang%NULL%2,                         Yin%Zhao%NULL%1,                         Lingkong%Zeng%NULL%1,                         Hui%Gao%NULL%1,                         Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Suliman%Khan%NULL%1,                         Liangyu%Peng%NULL%2,                         Liangyu%Peng%NULL%0,                         Rabeea%Siddique%NULL%1,                         Ghulam%Nabi%NULL%1,                         NULL%Nawsherwan%NULL%1,                         Mengzhou%Xue%NULL%1,                         Jianbo%Liu%NULL%1,                         Guang%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,                         Lefei%Han%NULL%1,                         Min%Peng%2658706528@qq.com%1,                         Yuxia%Lv%NULL%1,                         Yin%Ouyang%NULL%1,                         Kui%Liu%NULL%0,                         Linli%Yue%NULL%1,                         Qiannan%Li%NULL%1,                         Guoqiang%Sun%NULL%2,                         Lin%Chen%NULL%0,                         Lin%Yang%l.yang@polyu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Nan%Yu%NULL%1,                         Wei%Li%NULL%0,                         Qingling%Kang%NULL%1,                         Zhi%Xiong%NULL%1,                         Shaoshuai%Wang%NULL%1,                         Xingguang%Lin%NULL%1,                         Yanyan%Liu%NULL%1,                         Juan%Xiao%NULL%1,                         Haiyi%Liu%NULL%1,                         Dongrui%Deng%NULL%1,                         Suhua%Chen%NULL%1,                         Wanjiang%Zeng%NULL%1,                         Ling%Feng%NULL%1,                         Jianli%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nicoletta%Vendola%NULL%1,                         Viviana%stampini%NULL%2,                         Viviana%stampini%NULL%0,                         Roberta%Amadori%NULL%2,                         Roberta%Amadori%NULL%0,                         Martina%Gerbino%NULL%2,                         Martina%Gerbino%NULL%0,                         Annalisa%Curatolo%NULL%2,                         Annalisa%Curatolo%NULL%0,                         Daniela%surico%NULL%2,                         Daniela%surico%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Siyu%Chen%NULL%1,                         E.%Liao%NULL%2,                         E.%Liao%NULL%0,                         Dongmei%Cao%NULL%1,                         Ying%Gao%NULL%1,                         Guoqiang%Sun%sun821ch@126.com%0,                         Yong%Shao%cqshaoyong@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Baud%D.%coreGivesNoEmail%1,                        Dubruc%E.%coreGivesNoEmail%1,                        Favre%G.%coreGivesNoEmail%1,                        Gengler%C.%coreGivesNoEmail%1,                        Greub%G.%coreGivesNoEmail%1,                        Jaton%K.%coreGivesNoEmail%1,                        Pomar%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[AZAP%ALPAY%coreGivesNoEmail%0,                        Kalafat%Erkan%coreGivesNoEmail%1,                        KO\u00c7%ASLI%coreGivesNoEmail%1,                        Ozisik%S.%coreGivesNoEmail%1,                        UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%1,                        VARLI%BULUT%coreGivesNoEmail%1,                        Yaprak%E.%coreGivesNoEmail%1,                        \u00c7INAR%G\u00dcLE%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%0,                         Jianhui%Wang%NULL%1,                         Yunbo%Mo%NULL%1,                         Wei%Duan%NULL%0,                         Guangjun%Xiang%NULL%1,                         Ming%Yi%NULL%1,                         Lei%Bao%NULL%1,                         Yuan%Shi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,                         Caitlin%Baptiste%NULL%1,                         Cynthia%Gyamfi-Bannerman%NULL%1,                         Russell%Miller%NULL%1,                         Rebecca%Martinez%NULL%1,                         Kyra%Bernstein%NULL%1,                         Laurence%Ring%NULL%1,                         Ruth%Landau%NULL%1,                         Stephanie%Purisch%NULL%1,                         Alexander M.%Friedman%NULL%1,                         Karin%Fuchs%NULL%1,                         Desmond%Sutton%NULL%1,                         Maria%Andrikopoulou%NULL%1,                         Devon%Rupley%NULL%1,                         Jean-Ju%Sheen%NULL%1,                         Janice%Aubey%NULL%1,                         Noelia%Zork%NULL%1,                         Leslie%Moroz%NULL%1,                         Mirella%Mourad%NULL%1,                         Ronald%Wapner%NULL%1,                         Lynn L.%Simpson%NULL%1,                         Mary E.%D’Alton%NULL%1,                         Dena%Goffman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%0,                         Hong%Wei%NULL%2,                         Hong%Wei%NULL%0,                         Zhihong%Zhang%NULL%1,                         Jing%Chang%NULL%1,                         Xiaopeng%Ma%NULL%1,                         Xiang%Gao%NULL%1,                         Qiang%Chen%qiangchen2015@sina.com%1,                         Qiumei%Pang%pqm19650930@sina.com%2,                         Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%0,                         Yousef%Al Ahwel%NULL%1,                         Anju%Suhag%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                         Jing%Wang%NULL%0,                         Wenbin%Li%NULL%1,                         Zhaoxian%Zhou%NULL%1,                         Siying%Liu%NULL%1,                         Zhihui%Rong%rongzhihui53@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1747,6 +1981,9 @@
       <c r="I1" t="s">
         <v>121</v>
       </c>
+      <c r="J1" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1762,7 +1999,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>411</v>
+        <v>263</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1771,10 +2008,13 @@
         <v>183</v>
       </c>
       <c r="H2" t="s">
-        <v>184</v>
+        <v>431</v>
       </c>
       <c r="I2" t="s">
-        <v>390</v>
+        <v>44</v>
+      </c>
+      <c r="J2" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="3">
@@ -1791,7 +2031,7 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>412</v>
+        <v>493</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -1804,6 +2044,9 @@
       </c>
       <c r="I3" t="s">
         <v>392</v>
+      </c>
+      <c r="J3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4">
@@ -1820,7 +2063,7 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>413</v>
+        <v>494</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
@@ -1833,6 +2076,9 @@
       </c>
       <c r="I4" t="s">
         <v>392</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5">
@@ -1849,7 +2095,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>414</v>
+        <v>495</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1862,6 +2108,9 @@
       </c>
       <c r="I5" t="s">
         <v>392</v>
+      </c>
+      <c r="J5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6">
@@ -1878,7 +2127,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>415</v>
+        <v>496</v>
       </c>
       <c r="F6" t="s">
         <v>51</v>
@@ -1891,6 +2140,9 @@
       </c>
       <c r="I6" t="s">
         <v>392</v>
+      </c>
+      <c r="J6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7">
@@ -1907,7 +2159,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>416</v>
+        <v>497</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1920,6 +2172,9 @@
       </c>
       <c r="I7" t="s">
         <v>397</v>
+      </c>
+      <c r="J7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8">
@@ -1936,7 +2191,7 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>417</v>
+        <v>269</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1945,10 +2200,13 @@
         <v>183</v>
       </c>
       <c r="H8" t="s">
-        <v>192</v>
+        <v>431</v>
       </c>
       <c r="I8" t="s">
-        <v>390</v>
+        <v>44</v>
+      </c>
+      <c r="J8" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="9">
@@ -1965,7 +2223,7 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>418</v>
+        <v>498</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1978,6 +2236,9 @@
       </c>
       <c r="I9" t="s">
         <v>397</v>
+      </c>
+      <c r="J9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10">
@@ -1994,7 +2255,7 @@
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>419</v>
+        <v>271</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -2003,10 +2264,13 @@
         <v>183</v>
       </c>
       <c r="H10" t="s">
-        <v>196</v>
+        <v>440</v>
       </c>
       <c r="I10" t="s">
-        <v>390</v>
+        <v>44</v>
+      </c>
+      <c r="J10" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="11">
@@ -2023,7 +2287,7 @@
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>420</v>
+        <v>499</v>
       </c>
       <c r="F11" t="s">
         <v>62</v>
@@ -2036,6 +2300,9 @@
       </c>
       <c r="I11" t="s">
         <v>392</v>
+      </c>
+      <c r="J11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12">
@@ -2052,7 +2319,7 @@
         <v>96</v>
       </c>
       <c r="E12" t="s">
-        <v>421</v>
+        <v>500</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -2065,6 +2332,9 @@
       </c>
       <c r="I12" t="s">
         <v>390</v>
+      </c>
+      <c r="J12" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13">
@@ -2081,7 +2351,7 @@
         <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>422</v>
+        <v>501</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -2094,6 +2364,9 @@
       </c>
       <c r="I13" t="s">
         <v>390</v>
+      </c>
+      <c r="J13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14">
@@ -2110,7 +2383,7 @@
         <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>423</v>
+        <v>502</v>
       </c>
       <c r="F14" t="s">
         <v>67</v>
@@ -2123,6 +2396,9 @@
       </c>
       <c r="I14" t="s">
         <v>397</v>
+      </c>
+      <c r="J14" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="15">
@@ -2139,7 +2415,7 @@
         <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>424</v>
+        <v>503</v>
       </c>
       <c r="F15" t="s">
         <v>72</v>
@@ -2152,6 +2428,9 @@
       </c>
       <c r="I15" t="s">
         <v>397</v>
+      </c>
+      <c r="J15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16">
@@ -2168,7 +2447,7 @@
         <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>425</v>
+        <v>504</v>
       </c>
       <c r="F16" t="s">
         <v>76</v>
@@ -2181,6 +2460,9 @@
       </c>
       <c r="I16" t="s">
         <v>392</v>
+      </c>
+      <c r="J16" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="17">
@@ -2197,7 +2479,7 @@
         <v>204</v>
       </c>
       <c r="E17" t="s">
-        <v>426</v>
+        <v>278</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -2209,7 +2491,10 @@
         <v>206</v>
       </c>
       <c r="I17" t="s">
-        <v>390</v>
+        <v>44</v>
+      </c>
+      <c r="J17" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="18">
@@ -2226,7 +2511,7 @@
         <v>79</v>
       </c>
       <c r="E18" t="s">
-        <v>427</v>
+        <v>505</v>
       </c>
       <c r="F18" t="s">
         <v>81</v>
@@ -2239,6 +2524,9 @@
       </c>
       <c r="I18" t="s">
         <v>397</v>
+      </c>
+      <c r="J18" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -2255,7 +2543,7 @@
         <v>84</v>
       </c>
       <c r="E19" t="s">
-        <v>428</v>
+        <v>506</v>
       </c>
       <c r="F19" t="s">
         <v>86</v>
@@ -2268,6 +2556,9 @@
       </c>
       <c r="I19" t="s">
         <v>410</v>
+      </c>
+      <c r="J19" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/96.xlsx
+++ b/Covid_19_Dataset_and_References/References/96.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3536" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3840" uniqueCount="535">
   <si>
     <t>Doi</t>
   </si>
@@ -1633,6 +1633,90 @@
   </si>
   <si>
     <t>[Wei%Liu%NULL%0,                         Jing%Wang%NULL%0,                         Wenbin%Li%NULL%1,                         Zhaoxian%Zhou%NULL%1,                         Siying%Liu%NULL%1,                         Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,                          Zhiqiang%Zhou%NULL%0,                          Jianping%Zhang%NULL%0,                          Fengfeng%Zhu%NULL%0,                          Yongyan%Tang%NULL%0,                          Xinghua%Shen%luckydrx@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%0,                          Hua%Peng%NULL%1,                          Lin%Wang%NULL%2,                          Yin%Zhao%NULL%1,                          Lingkong%Zeng%NULL%1,                          Hui%Gao%NULL%1,                          Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Suliman%Khan%NULL%1,                          Liangyu%Peng%NULL%2,                          Liangyu%Peng%NULL%0,                          Rabeea%Siddique%NULL%1,                          Ghulam%Nabi%NULL%1,                          NULL%Nawsherwan%NULL%1,                          Mengzhou%Xue%NULL%1,                          Jianbo%Liu%NULL%1,                          Guang%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,                          Lefei%Han%NULL%1,                          Min%Peng%2658706528@qq.com%1,                          Yuxia%Lv%NULL%1,                          Yin%Ouyang%NULL%1,                          Kui%Liu%NULL%0,                          Linli%Yue%NULL%1,                          Qiannan%Li%NULL%1,                          Guoqiang%Sun%NULL%2,                          Lin%Chen%NULL%0,                          Lin%Yang%l.yang@polyu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Nan%Yu%NULL%1,                          Wei%Li%NULL%0,                          Qingling%Kang%NULL%1,                          Zhi%Xiong%NULL%1,                          Shaoshuai%Wang%NULL%1,                          Xingguang%Lin%NULL%1,                          Yanyan%Liu%NULL%1,                          Juan%Xiao%NULL%1,                          Haiyi%Liu%NULL%1,                          Dongrui%Deng%NULL%1,                          Suhua%Chen%NULL%1,                          Wanjiang%Zeng%NULL%1,                          Ling%Feng%NULL%1,                          Jianli%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nicoletta%Vendola%NULL%1,                          Viviana%stampini%NULL%2,                          Viviana%stampini%NULL%0,                          Roberta%Amadori%NULL%2,                          Roberta%Amadori%NULL%0,                          Martina%Gerbino%NULL%2,                          Martina%Gerbino%NULL%0,                          Annalisa%Curatolo%NULL%2,                          Annalisa%Curatolo%NULL%0,                          Daniela%surico%NULL%2,                          Daniela%surico%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Siyu%Chen%NULL%1,                          E.%Liao%NULL%2,                          E.%Liao%NULL%0,                          Dongmei%Cao%NULL%1,                          Ying%Gao%NULL%1,                          Guoqiang%Sun%sun821ch@126.com%0,                          Yong%Shao%cqshaoyong@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Baud%D.%coreGivesNoEmail%1,                         Dubruc%E.%coreGivesNoEmail%1,                         Favre%G.%coreGivesNoEmail%1,                         Gengler%C.%coreGivesNoEmail%1,                         Greub%G.%coreGivesNoEmail%1,                         Jaton%K.%coreGivesNoEmail%1,                         Pomar%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[AZAP%ALPAY%coreGivesNoEmail%0,                         Kalafat%Erkan%coreGivesNoEmail%1,                         KO\u00c7%ASLI%coreGivesNoEmail%1,                         Ozisik%S.%coreGivesNoEmail%1,                         UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%1,                         VARLI%BULUT%coreGivesNoEmail%1,                         Yaprak%E.%coreGivesNoEmail%1,                         \u00c7INAR%G\u00dcLE%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%0,                          Jianhui%Wang%NULL%1,                          Yunbo%Mo%NULL%1,                          Wei%Duan%NULL%0,                          Guangjun%Xiang%NULL%1,                          Ming%Yi%NULL%1,                          Lei%Bao%NULL%1,                          Yuan%Shi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,                          Caitlin%Baptiste%NULL%1,                          Cynthia%Gyamfi-Bannerman%NULL%1,                          Russell%Miller%NULL%1,                          Rebecca%Martinez%NULL%1,                          Kyra%Bernstein%NULL%1,                          Laurence%Ring%NULL%1,                          Ruth%Landau%NULL%1,                          Stephanie%Purisch%NULL%1,                          Alexander M.%Friedman%NULL%1,                          Karin%Fuchs%NULL%1,                          Desmond%Sutton%NULL%1,                          Maria%Andrikopoulou%NULL%1,                          Devon%Rupley%NULL%1,                          Jean-Ju%Sheen%NULL%1,                          Janice%Aubey%NULL%1,                          Noelia%Zork%NULL%1,                          Leslie%Moroz%NULL%1,                          Mirella%Mourad%NULL%1,                          Ronald%Wapner%NULL%1,                          Lynn L.%Simpson%NULL%1,                          Mary E.%D’Alton%NULL%1,                          Dena%Goffman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%0,                          Hong%Wei%NULL%2,                          Hong%Wei%NULL%0,                          Zhihong%Zhang%NULL%1,                          Jing%Chang%NULL%1,                          Xiaopeng%Ma%NULL%1,                          Xiang%Gao%NULL%1,                          Qiang%Chen%qiangchen2015@sina.com%1,                          Qiumei%Pang%pqm19650930@sina.com%2,                          Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%0,                          Yousef%Al Ahwel%NULL%1,                          Anju%Suhag%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                          Jing%Wang%NULL%0,                          Wenbin%Li%NULL%1,                          Zhaoxian%Zhou%NULL%1,                          Siying%Liu%NULL%1,                          Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,                           Zhiqiang%Zhou%NULL%0,                           Jianping%Zhang%NULL%0,                           Fengfeng%Zhu%NULL%0,                           Yongyan%Tang%NULL%0,                           Xinghua%Shen%luckydrx@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%0,                           Hua%Peng%NULL%1,                           Lin%Wang%NULL%2,                           Yin%Zhao%NULL%1,                           Lingkong%Zeng%NULL%1,                           Hui%Gao%NULL%1,                           Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Suliman%Khan%NULL%1,                           Liangyu%Peng%NULL%2,                           Liangyu%Peng%NULL%0,                           Rabeea%Siddique%NULL%1,                           Ghulam%Nabi%NULL%1,                           NULL%Nawsherwan%NULL%1,                           Mengzhou%Xue%NULL%1,                           Jianbo%Liu%NULL%1,                           Guang%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,                           Lefei%Han%NULL%1,                           Min%Peng%2658706528@qq.com%1,                           Yuxia%Lv%NULL%1,                           Yin%Ouyang%NULL%1,                           Kui%Liu%NULL%0,                           Linli%Yue%NULL%1,                           Qiannan%Li%NULL%1,                           Guoqiang%Sun%NULL%2,                           Lin%Chen%NULL%0,                           Lin%Yang%l.yang@polyu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Nan%Yu%NULL%1,                           Wei%Li%NULL%0,                           Qingling%Kang%NULL%1,                           Zhi%Xiong%NULL%1,                           Shaoshuai%Wang%NULL%1,                           Xingguang%Lin%NULL%1,                           Yanyan%Liu%NULL%1,                           Juan%Xiao%NULL%1,                           Haiyi%Liu%NULL%1,                           Dongrui%Deng%NULL%1,                           Suhua%Chen%NULL%1,                           Wanjiang%Zeng%NULL%1,                           Ling%Feng%NULL%1,                           Jianli%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nicoletta%Vendola%NULL%1,                           Viviana%stampini%NULL%2,                           Viviana%stampini%NULL%0,                           Roberta%Amadori%NULL%2,                           Roberta%Amadori%NULL%0,                           Martina%Gerbino%NULL%2,                           Martina%Gerbino%NULL%0,                           Annalisa%Curatolo%NULL%2,                           Annalisa%Curatolo%NULL%0,                           Daniela%surico%NULL%2,                           Daniela%surico%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Siyu%Chen%NULL%1,                           E.%Liao%NULL%2,                           E.%Liao%NULL%0,                           Dongmei%Cao%NULL%1,                           Ying%Gao%NULL%1,                           Guoqiang%Sun%sun821ch@126.com%0,                           Yong%Shao%cqshaoyong@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Baud%D.%coreGivesNoEmail%1,                          Dubruc%E.%coreGivesNoEmail%1,                          Favre%G.%coreGivesNoEmail%1,                          Gengler%C.%coreGivesNoEmail%1,                          Greub%G.%coreGivesNoEmail%1,                          Jaton%K.%coreGivesNoEmail%1,                          Pomar%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[AZAP%ALPAY%coreGivesNoEmail%0,                          Kalafat%Erkan%coreGivesNoEmail%1,                          KO\u00c7%ASLI%coreGivesNoEmail%1,                          Ozisik%S.%coreGivesNoEmail%1,                          UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%1,                          VARLI%BULUT%coreGivesNoEmail%1,                          Yaprak%E.%coreGivesNoEmail%1,                          \u00c7INAR%G\u00dcLE%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%0,                           Jianhui%Wang%NULL%1,                           Yunbo%Mo%NULL%1,                           Wei%Duan%NULL%0,                           Guangjun%Xiang%NULL%1,                           Ming%Yi%NULL%1,                           Lei%Bao%NULL%1,                           Yuan%Shi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,                           Caitlin%Baptiste%NULL%1,                           Cynthia%Gyamfi-Bannerman%NULL%1,                           Russell%Miller%NULL%1,                           Rebecca%Martinez%NULL%1,                           Kyra%Bernstein%NULL%1,                           Laurence%Ring%NULL%1,                           Ruth%Landau%NULL%1,                           Stephanie%Purisch%NULL%1,                           Alexander M.%Friedman%NULL%1,                           Karin%Fuchs%NULL%1,                           Desmond%Sutton%NULL%1,                           Maria%Andrikopoulou%NULL%1,                           Devon%Rupley%NULL%1,                           Jean-Ju%Sheen%NULL%1,                           Janice%Aubey%NULL%1,                           Noelia%Zork%NULL%1,                           Leslie%Moroz%NULL%1,                           Mirella%Mourad%NULL%1,                           Ronald%Wapner%NULL%1,                           Lynn L.%Simpson%NULL%1,                           Mary E.%D’Alton%NULL%1,                           Dena%Goffman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%0,                           Hong%Wei%NULL%2,                           Hong%Wei%NULL%0,                           Zhihong%Zhang%NULL%1,                           Jing%Chang%NULL%1,                           Xiaopeng%Ma%NULL%1,                           Xiang%Gao%NULL%1,                           Qiang%Chen%qiangchen2015@sina.com%1,                           Qiumei%Pang%pqm19650930@sina.com%2,                           Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%0,                           Yousef%Al Ahwel%NULL%1,                           Anju%Suhag%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                           Jing%Wang%NULL%0,                           Wenbin%Li%NULL%1,                           Zhaoxian%Zhou%NULL%1,                           Siying%Liu%NULL%1,                           Zhihui%Rong%rongzhihui53@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1999,7 +2083,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -2031,7 +2115,7 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>493</v>
+        <v>521</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -2063,7 +2147,7 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>494</v>
+        <v>522</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
@@ -2095,7 +2179,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>495</v>
+        <v>523</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -2127,7 +2211,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>496</v>
+        <v>524</v>
       </c>
       <c r="F6" t="s">
         <v>51</v>
@@ -2159,7 +2243,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>497</v>
+        <v>525</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -2191,7 +2275,7 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -2223,7 +2307,7 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>498</v>
+        <v>526</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -2255,7 +2339,7 @@
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -2287,7 +2371,7 @@
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>499</v>
+        <v>527</v>
       </c>
       <c r="F11" t="s">
         <v>62</v>
@@ -2319,7 +2403,7 @@
         <v>96</v>
       </c>
       <c r="E12" t="s">
-        <v>500</v>
+        <v>528</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -2351,7 +2435,7 @@
         <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>501</v>
+        <v>529</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -2383,7 +2467,7 @@
         <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>502</v>
+        <v>530</v>
       </c>
       <c r="F14" t="s">
         <v>67</v>
@@ -2415,7 +2499,7 @@
         <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>503</v>
+        <v>531</v>
       </c>
       <c r="F15" t="s">
         <v>72</v>
@@ -2447,7 +2531,7 @@
         <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>504</v>
+        <v>532</v>
       </c>
       <c r="F16" t="s">
         <v>76</v>
@@ -2479,7 +2563,7 @@
         <v>204</v>
       </c>
       <c r="E17" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -2511,7 +2595,7 @@
         <v>79</v>
       </c>
       <c r="E18" t="s">
-        <v>505</v>
+        <v>533</v>
       </c>
       <c r="F18" t="s">
         <v>81</v>
@@ -2543,7 +2627,7 @@
         <v>84</v>
       </c>
       <c r="E19" t="s">
-        <v>506</v>
+        <v>534</v>
       </c>
       <c r="F19" t="s">
         <v>86</v>
